--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3332801.918364577</v>
+        <v>3330219.611444516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8514014.909231925</v>
+        <v>8514014.909231929</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8299884.891464338</v>
+        <v>8299884.891464339</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="G2" t="n">
-        <v>21.18689457445403</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>40.21094638715004</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>123.8929822635895</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>30.80359288128059</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.51572092966557</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>124.0565678749518</v>
+        <v>14.46729830701372</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>97.38995978399825</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.1268396142496</v>
       </c>
     </row>
     <row r="6">
@@ -978,13 +978,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>74.00652248624132</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.40466188138193</v>
       </c>
       <c r="S6" t="n">
-        <v>91.34276152418474</v>
+        <v>163.3803536010976</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3630074941089</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9119742267739</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.1436283814096</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>122.0533222845903</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>217.4857403436987</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>198.6041029820364</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>146.4340874029168</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.48562095232887</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>77.17000329978113</v>
       </c>
       <c r="S13" t="n">
-        <v>59.90640227448364</v>
+        <v>185.2101817522263</v>
       </c>
       <c r="T13" t="n">
         <v>218.4312359312389</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>1.600827926742511</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         <v>250.9485179131561</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701333</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>218.4312359312389</v>
       </c>
       <c r="U16" t="n">
-        <v>285.5019796177437</v>
+        <v>286.1975695246138</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>246.7653863875062</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>288.635317562389</v>
       </c>
       <c r="I17" t="n">
-        <v>19.094053540223</v>
+        <v>19.09405354022303</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.1363902750679</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>80.06270816018143</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.7642157740445</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>166.5512311917578</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.95271879982342</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.17000329978113</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>185.2101817522263</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2375,7 +2375,7 @@
         <v>250.9485179131561</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701333</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>72.93770612323877</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.7642157740445</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.7870154177141603</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>166.5512311917578</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.7642157740445</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>218.4312359312389</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1975695246138</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>76.82597150274611</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2843,7 +2843,7 @@
         <v>95.89864844526117</v>
       </c>
       <c r="T29" t="n">
-        <v>201.3651190739653</v>
+        <v>201.3651190739665</v>
       </c>
       <c r="U29" t="n">
         <v>250.9485179131561</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.7642157740445</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>218.4312359312389</v>
       </c>
       <c r="U31" t="n">
-        <v>160.8937900468711</v>
+        <v>286.1975695246138</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>80.06270816018134</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>77.95701871749442</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.7642157740445</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>81.07562278381941</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.17000329978113</v>
       </c>
       <c r="S34" t="n">
         <v>185.2101817522263</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.041986989323703</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7642157740445</v>
+        <v>76.39859246395466</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>88.48562095232887</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>25.31573178209761</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>111.3550362528626</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.7642157740445</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>88.48562095232887</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.17000329978113</v>
       </c>
       <c r="S40" t="n">
         <v>185.2101817522263</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3791,7 +3791,7 @@
         <v>95.89864844526117</v>
       </c>
       <c r="T41" t="n">
-        <v>201.3651190739653</v>
+        <v>201.3651190739656</v>
       </c>
       <c r="U41" t="n">
         <v>250.9485179131561</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>32.00352258143887</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.7642157740445</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>88.48562095232887</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1975695246138</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>214.985798080413</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.48562095232887</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>76.4744133929111</v>
+        <v>77.17000329978113</v>
       </c>
       <c r="S46" t="n">
         <v>185.2101817522263</v>
       </c>
       <c r="T46" t="n">
-        <v>218.4312359312389</v>
+        <v>154.0676262592023</v>
       </c>
       <c r="U46" t="n">
         <v>286.1975695246138</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="C2" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="D2" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="E2" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="F2" t="n">
-        <v>250.6127399770974</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4331,16 +4331,16 @@
         <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901066</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>529.5587134138201</v>
+        <v>856.1181892401817</v>
       </c>
       <c r="U2" t="n">
-        <v>529.5587134138201</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="V2" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="W2" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="X2" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="Y2" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046595</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.4799600385667</v>
+        <v>470.624386567445</v>
       </c>
       <c r="C3" t="n">
-        <v>171.0269307574397</v>
+        <v>296.171357286318</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618844</v>
+        <v>147.2369476250667</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>147.2369476250667</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>147.2369476250667</v>
       </c>
       <c r="G3" t="n">
         <v>22.09252109618844</v>
@@ -4407,19 +4407,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>562.3310704112777</v>
+        <v>555.4329354292296</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="O3" t="n">
         <v>828.8278839945615</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>977.0660176562299</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>977.0660176562299</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U3" t="n">
-        <v>748.8474052903775</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="V3" t="n">
-        <v>513.6952970586348</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="W3" t="n">
-        <v>513.6952970586348</v>
+        <v>678.3846853323989</v>
       </c>
       <c r="X3" t="n">
-        <v>513.6952970586348</v>
+        <v>678.3846853323989</v>
       </c>
       <c r="Y3" t="n">
-        <v>513.6952970586348</v>
+        <v>470.624386567445</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>48.87607759080012</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
         <v>22.09252109618844</v>
@@ -4528,10 +4528,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>960.2347511257574</v>
+        <v>832.7127835811187</v>
       </c>
       <c r="C5" t="n">
-        <v>960.2347511257574</v>
+        <v>463.750266640707</v>
       </c>
       <c r="D5" t="n">
-        <v>960.2347511257574</v>
+        <v>463.750266640707</v>
       </c>
       <c r="E5" t="n">
-        <v>574.4464985275131</v>
+        <v>463.750266640707</v>
       </c>
       <c r="F5" t="n">
-        <v>163.4605937379055</v>
+        <v>52.76436185109945</v>
       </c>
       <c r="G5" t="n">
-        <v>38.1509292177522</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="H5" t="n">
-        <v>38.1509292177522</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="I5" t="n">
-        <v>38.1509292177522</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="J5" t="n">
-        <v>96.51892266207062</v>
+        <v>96.51892266207074</v>
       </c>
       <c r="K5" t="n">
-        <v>304.7422187413559</v>
+        <v>304.7422187413565</v>
       </c>
       <c r="L5" t="n">
-        <v>615.3382574332652</v>
+        <v>615.3382574332661</v>
       </c>
       <c r="M5" t="n">
-        <v>977.5427414006734</v>
+        <v>977.5427414006747</v>
       </c>
       <c r="N5" t="n">
-        <v>1330.976075045991</v>
+        <v>1330.976075045993</v>
       </c>
       <c r="O5" t="n">
-        <v>1619.525511987218</v>
+        <v>1619.52551198722</v>
       </c>
       <c r="P5" t="n">
-        <v>1828.121397681857</v>
+        <v>1828.12139768186</v>
       </c>
       <c r="Q5" t="n">
-        <v>1907.54646088761</v>
+        <v>1907.546460887613</v>
       </c>
       <c r="R5" t="n">
-        <v>1809.172764136097</v>
+        <v>1907.546460887613</v>
       </c>
       <c r="S5" t="n">
-        <v>1809.172764136097</v>
+        <v>1907.546460887613</v>
       </c>
       <c r="T5" t="n">
-        <v>1587.517497034501</v>
+        <v>1685.891193786017</v>
       </c>
       <c r="U5" t="n">
-        <v>1333.700509386837</v>
+        <v>1432.074206138354</v>
       </c>
       <c r="V5" t="n">
-        <v>1333.700509386837</v>
+        <v>1432.074206138354</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.700509386837</v>
+        <v>1079.30555086824</v>
       </c>
       <c r="X5" t="n">
-        <v>960.2347511257574</v>
+        <v>1079.30555086824</v>
       </c>
       <c r="Y5" t="n">
-        <v>960.2347511257574</v>
+        <v>832.7127835811187</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>742.0644442561164</v>
+        <v>212.6039584988793</v>
       </c>
       <c r="C6" t="n">
-        <v>567.6114149749894</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="D6" t="n">
-        <v>418.6770053137382</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="E6" t="n">
-        <v>259.4395503082827</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="F6" t="n">
-        <v>112.9049923351677</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="G6" t="n">
-        <v>112.9049923351677</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="H6" t="n">
-        <v>112.9049923351677</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="I6" t="n">
-        <v>38.1509292177522</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="J6" t="n">
-        <v>71.58011807552467</v>
+        <v>79.2211265693999</v>
       </c>
       <c r="K6" t="n">
-        <v>268.396470029089</v>
+        <v>276.0374785229644</v>
       </c>
       <c r="L6" t="n">
-        <v>268.396470029089</v>
+        <v>602.0857486577659</v>
       </c>
       <c r="M6" t="n">
-        <v>700.8586442133292</v>
+        <v>700.858644213331</v>
       </c>
       <c r="N6" t="n">
-        <v>1160.473818704322</v>
+        <v>1160.473818704324</v>
       </c>
       <c r="O6" t="n">
-        <v>1514.516231999722</v>
+        <v>1514.516231999725</v>
       </c>
       <c r="P6" t="n">
-        <v>1781.663413922391</v>
+        <v>1781.663413922394</v>
       </c>
       <c r="Q6" t="n">
-        <v>1907.54646088761</v>
+        <v>1907.546460887613</v>
       </c>
       <c r="R6" t="n">
-        <v>1907.54646088761</v>
+        <v>1834.410438785207</v>
       </c>
       <c r="S6" t="n">
-        <v>1815.281045206615</v>
+        <v>1669.379778582078</v>
       </c>
       <c r="T6" t="n">
-        <v>1815.281045206615</v>
+        <v>1469.013104345604</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.281045206615</v>
+        <v>1240.819190985227</v>
       </c>
       <c r="V6" t="n">
-        <v>1580.128936974873</v>
+        <v>1005.667082753484</v>
       </c>
       <c r="W6" t="n">
-        <v>1325.891580246671</v>
+        <v>796.4310944894341</v>
       </c>
       <c r="X6" t="n">
-        <v>1118.040080041138</v>
+        <v>588.5795942839013</v>
       </c>
       <c r="Y6" t="n">
-        <v>910.2797812761844</v>
+        <v>380.8192955189473</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.4437002538471</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="C7" t="n">
-        <v>335.1575161279983</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="D7" t="n">
-        <v>185.0408767156626</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="E7" t="n">
-        <v>185.0408767156626</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="F7" t="n">
-        <v>38.1509292177522</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="G7" t="n">
-        <v>38.1509292177522</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="H7" t="n">
-        <v>38.1509292177522</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="I7" t="n">
-        <v>38.1509292177522</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="J7" t="n">
-        <v>38.1509292177522</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="K7" t="n">
-        <v>59.20779308573356</v>
+        <v>59.20779308573377</v>
       </c>
       <c r="L7" t="n">
-        <v>141.6797638152189</v>
+        <v>141.6797638152193</v>
       </c>
       <c r="M7" t="n">
-        <v>239.0240166204116</v>
+        <v>239.0240166204122</v>
       </c>
       <c r="N7" t="n">
-        <v>339.488257090853</v>
+        <v>339.4882570908539</v>
       </c>
       <c r="O7" t="n">
-        <v>416.2669482593292</v>
+        <v>416.2669482593303</v>
       </c>
       <c r="P7" t="n">
-        <v>458.4437002538471</v>
+        <v>458.4437002538484</v>
       </c>
       <c r="Q7" t="n">
-        <v>458.4437002538471</v>
+        <v>458.4437002538484</v>
       </c>
       <c r="R7" t="n">
-        <v>458.4437002538471</v>
+        <v>458.4437002538484</v>
       </c>
       <c r="S7" t="n">
-        <v>458.4437002538471</v>
+        <v>238.7611342501123</v>
       </c>
       <c r="T7" t="n">
-        <v>458.4437002538471</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="U7" t="n">
-        <v>458.4437002538471</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="V7" t="n">
-        <v>458.4437002538471</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="W7" t="n">
-        <v>458.4437002538471</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="X7" t="n">
-        <v>458.4437002538471</v>
+        <v>38.15092921775226</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.4437002538471</v>
+        <v>38.15092921775226</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2343.958398538719</v>
+        <v>2343.958398538718</v>
       </c>
       <c r="C11" t="n">
         <v>1974.995881598307</v>
       </c>
       <c r="D11" t="n">
-        <v>1616.730182991557</v>
+        <v>1616.730182991556</v>
       </c>
       <c r="E11" t="n">
-        <v>1230.941930393313</v>
+        <v>1230.941930393312</v>
       </c>
       <c r="F11" t="n">
-        <v>819.956025603705</v>
+        <v>819.9560256037042</v>
       </c>
       <c r="G11" t="n">
-        <v>405.4726416828661</v>
+        <v>405.4726416828653</v>
       </c>
       <c r="H11" t="n">
-        <v>113.9218158622711</v>
+        <v>113.921815862271</v>
       </c>
       <c r="I11" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J11" t="n">
-        <v>499.9210077858625</v>
+        <v>482.5794649361775</v>
       </c>
       <c r="K11" t="n">
-        <v>907.1806799235353</v>
+        <v>1210.743095519303</v>
       </c>
       <c r="L11" t="n">
-        <v>1449.324077431884</v>
+        <v>1752.886493027652</v>
       </c>
       <c r="M11" t="n">
-        <v>2529.250902611305</v>
+        <v>2387.794920049168</v>
       </c>
       <c r="N11" t="n">
-        <v>3179.046620137186</v>
+        <v>3037.59063757505</v>
       </c>
       <c r="O11" t="n">
-        <v>3779.295028912232</v>
+        <v>3637.839046350095</v>
       </c>
       <c r="P11" t="n">
-        <v>4257.092157705034</v>
+        <v>4115.636175142898</v>
       </c>
       <c r="Q11" t="n">
-        <v>4571.40175899901</v>
+        <v>4636.46101467326</v>
       </c>
       <c r="R11" t="n">
-        <v>4731.744654718451</v>
+        <v>4731.744654718449</v>
       </c>
       <c r="S11" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.877333056569</v>
       </c>
       <c r="T11" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880846</v>
       </c>
       <c r="U11" t="n">
-        <v>4177.994871453418</v>
+        <v>4177.994871453417</v>
       </c>
       <c r="V11" t="n">
-        <v>3846.931984109847</v>
+        <v>3846.931984109846</v>
       </c>
       <c r="W11" t="n">
-        <v>3494.163328839733</v>
+        <v>3494.163328839732</v>
       </c>
       <c r="X11" t="n">
-        <v>3120.697570578653</v>
+        <v>3120.697570578652</v>
       </c>
       <c r="Y11" t="n">
-        <v>2730.558238602841</v>
+        <v>2730.55823860284</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>472.8310700191029</v>
       </c>
       <c r="F12" t="n">
-        <v>326.2965120459879</v>
+        <v>326.2965120459878</v>
       </c>
       <c r="G12" t="n">
         <v>190.2485901000271</v>
@@ -5115,22 +5115,22 @@
         <v>102.7906538237253</v>
       </c>
       <c r="I12" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J12" t="n">
         <v>217.4970218467728</v>
       </c>
       <c r="K12" t="n">
-        <v>505.6427938015034</v>
+        <v>505.6427938015033</v>
       </c>
       <c r="L12" t="n">
-        <v>939.4128847466715</v>
+        <v>939.4128847466714</v>
       </c>
       <c r="M12" t="n">
-        <v>947.7554874944898</v>
+        <v>1432.213404040539</v>
       </c>
       <c r="N12" t="n">
-        <v>1501.619878682048</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="O12" t="n">
         <v>1986.077795228097</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.4379341746725</v>
+        <v>482.0440411924603</v>
       </c>
       <c r="C13" t="n">
-        <v>389.4379341746725</v>
+        <v>482.0440411924603</v>
       </c>
       <c r="D13" t="n">
-        <v>389.4379341746725</v>
+        <v>331.9274017801246</v>
       </c>
       <c r="E13" t="n">
-        <v>241.5248405922794</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="F13" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="G13" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="H13" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="I13" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J13" t="n">
         <v>158.0671683427673</v>
@@ -5224,25 +5224,25 @@
         <v>2134.207770855304</v>
       </c>
       <c r="S13" t="n">
-        <v>2073.69625340633</v>
+        <v>1947.126779186388</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.058641354574</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U13" t="n">
-        <v>1563.970187289307</v>
+        <v>1437.400713069366</v>
       </c>
       <c r="V13" t="n">
-        <v>1309.28569908342</v>
+        <v>1182.716224863479</v>
       </c>
       <c r="W13" t="n">
-        <v>1019.86852904646</v>
+        <v>893.2990548265179</v>
       </c>
       <c r="X13" t="n">
-        <v>791.8789781484423</v>
+        <v>665.3095039285006</v>
       </c>
       <c r="Y13" t="n">
-        <v>571.0863990049122</v>
+        <v>663.6925060227001</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5270,46 @@
         <v>405.4726416828661</v>
       </c>
       <c r="H14" t="n">
-        <v>113.9218158622711</v>
+        <v>113.921815862271</v>
       </c>
       <c r="I14" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J14" t="n">
-        <v>332.5153587655095</v>
+        <v>332.5153587655094</v>
       </c>
       <c r="K14" t="n">
-        <v>1060.678989348635</v>
+        <v>739.7750309031821</v>
       </c>
       <c r="L14" t="n">
-        <v>1602.822386856984</v>
+        <v>1695.403030816477</v>
       </c>
       <c r="M14" t="n">
-        <v>2237.7308138785</v>
+        <v>2330.311457837993</v>
       </c>
       <c r="N14" t="n">
-        <v>2887.526531404382</v>
+        <v>2980.107175363875</v>
       </c>
       <c r="O14" t="n">
-        <v>3487.774940179427</v>
+        <v>3848.030887103401</v>
       </c>
       <c r="P14" t="n">
-        <v>4284.152790061997</v>
+        <v>4325.828015896203</v>
       </c>
       <c r="Q14" t="n">
-        <v>4594.785788839054</v>
+        <v>4636.46101467326</v>
       </c>
       <c r="R14" t="n">
-        <v>4731.744654718451</v>
+        <v>4731.744654718449</v>
       </c>
       <c r="S14" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.877333056569</v>
       </c>
       <c r="T14" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880846</v>
       </c>
       <c r="U14" t="n">
-        <v>4177.994871453418</v>
+        <v>4177.994871453416</v>
       </c>
       <c r="V14" t="n">
         <v>3846.931984109847</v>
@@ -5343,7 +5343,7 @@
         <v>472.8310700191029</v>
       </c>
       <c r="F15" t="n">
-        <v>326.2965120459879</v>
+        <v>326.2965120459878</v>
       </c>
       <c r="G15" t="n">
         <v>190.2485901000271</v>
@@ -5352,31 +5352,31 @@
         <v>102.7906538237253</v>
       </c>
       <c r="I15" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J15" t="n">
         <v>217.4970218467728</v>
       </c>
       <c r="K15" t="n">
-        <v>505.6427938015034</v>
+        <v>217.4970218467728</v>
       </c>
       <c r="L15" t="n">
-        <v>939.4128847466715</v>
+        <v>638.3203417907479</v>
       </c>
       <c r="M15" t="n">
-        <v>1464.958989438529</v>
+        <v>1163.866446482606</v>
       </c>
       <c r="N15" t="n">
-        <v>1501.619878682048</v>
+        <v>1717.730837670163</v>
       </c>
       <c r="O15" t="n">
-        <v>1986.077795228097</v>
+        <v>2202.188754216213</v>
       </c>
       <c r="P15" t="n">
-        <v>2355.564917577402</v>
+        <v>2571.675876565518</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.638077468793</v>
+        <v>2571.675876565518</v>
       </c>
       <c r="R15" t="n">
         <v>2571.675876565518</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.5710760222759</v>
+        <v>705.4687079174753</v>
       </c>
       <c r="C16" t="n">
-        <v>94.63489309436902</v>
+        <v>536.5325249895684</v>
       </c>
       <c r="D16" t="n">
-        <v>94.63489309436902</v>
+        <v>386.4158855772327</v>
       </c>
       <c r="E16" t="n">
-        <v>94.63489309436892</v>
+        <v>238.5027919948396</v>
       </c>
       <c r="F16" t="n">
-        <v>94.63489309436892</v>
+        <v>238.5027919948396</v>
       </c>
       <c r="G16" t="n">
-        <v>94.63489309436892</v>
+        <v>238.5027919948396</v>
       </c>
       <c r="H16" t="n">
-        <v>94.63489309436892</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="I16" t="n">
-        <v>94.63489309436892</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J16" t="n">
         <v>158.0671683427672</v>
@@ -5440,7 +5440,7 @@
         <v>392.1427189144665</v>
       </c>
       <c r="L16" t="n">
-        <v>747.2052688577705</v>
+        <v>747.2052688577708</v>
       </c>
       <c r="M16" t="n">
         <v>1131.958067424482</v>
@@ -5458,7 +5458,7 @@
         <v>2212.157269137911</v>
       </c>
       <c r="R16" t="n">
-        <v>2134.207770855303</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S16" t="n">
         <v>1947.126779186388</v>
@@ -5467,19 +5467,19 @@
         <v>1726.489167134632</v>
       </c>
       <c r="U16" t="n">
-        <v>1438.103329136911</v>
+        <v>1437.400713069365</v>
       </c>
       <c r="V16" t="n">
-        <v>1183.418840931024</v>
+        <v>1182.716224863478</v>
       </c>
       <c r="W16" t="n">
-        <v>894.0016708940631</v>
+        <v>933.4582588154923</v>
       </c>
       <c r="X16" t="n">
-        <v>666.0121199960457</v>
+        <v>705.4687079174753</v>
       </c>
       <c r="Y16" t="n">
-        <v>445.2195408525156</v>
+        <v>705.4687079174753</v>
       </c>
     </row>
     <row r="17">
@@ -5504,49 +5504,49 @@
         <v>819.956025603705</v>
       </c>
       <c r="G17" t="n">
-        <v>405.4726416828661</v>
+        <v>405.472641682866</v>
       </c>
       <c r="H17" t="n">
         <v>113.921815862271</v>
       </c>
       <c r="I17" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J17" t="n">
-        <v>417.5202092619271</v>
+        <v>499.9210077858625</v>
       </c>
       <c r="K17" t="n">
-        <v>1145.683839845053</v>
+        <v>907.1806799235352</v>
       </c>
       <c r="L17" t="n">
-        <v>1687.827237353402</v>
+        <v>1530.104878613094</v>
       </c>
       <c r="M17" t="n">
-        <v>2322.735664374918</v>
+        <v>2165.01330563461</v>
       </c>
       <c r="N17" t="n">
-        <v>2972.5313819008</v>
+        <v>3247.782478328356</v>
       </c>
       <c r="O17" t="n">
-        <v>3572.779790675845</v>
+        <v>3848.030887103401</v>
       </c>
       <c r="P17" t="n">
-        <v>4050.576919468647</v>
+        <v>4325.828015896203</v>
       </c>
       <c r="Q17" t="n">
-        <v>4571.40175899901</v>
+        <v>4636.46101467326</v>
       </c>
       <c r="R17" t="n">
-        <v>4731.744654718451</v>
+        <v>4731.744654718449</v>
       </c>
       <c r="S17" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.877333056569</v>
       </c>
       <c r="T17" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880846</v>
       </c>
       <c r="U17" t="n">
-        <v>4177.994871453418</v>
+        <v>4177.994871453416</v>
       </c>
       <c r="V17" t="n">
         <v>3846.931984109847</v>
@@ -5580,7 +5580,7 @@
         <v>472.8310700191029</v>
       </c>
       <c r="F18" t="n">
-        <v>326.2965120459879</v>
+        <v>326.2965120459878</v>
       </c>
       <c r="G18" t="n">
         <v>190.2485901000271</v>
@@ -5589,19 +5589,19 @@
         <v>102.7906538237253</v>
       </c>
       <c r="I18" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J18" t="n">
         <v>217.4970218467728</v>
       </c>
       <c r="K18" t="n">
-        <v>505.6427938015034</v>
+        <v>505.6427938015033</v>
       </c>
       <c r="L18" t="n">
-        <v>939.4128847466715</v>
+        <v>939.4128847466714</v>
       </c>
       <c r="M18" t="n">
-        <v>1464.958989438529</v>
+        <v>947.7554874944898</v>
       </c>
       <c r="N18" t="n">
         <v>1501.619878682048</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.5710760222759</v>
+        <v>490.858010852748</v>
       </c>
       <c r="C19" t="n">
-        <v>94.63489309436902</v>
+        <v>490.858010852748</v>
       </c>
       <c r="D19" t="n">
-        <v>94.63489309436902</v>
+        <v>409.9865884687263</v>
       </c>
       <c r="E19" t="n">
-        <v>94.63489309436898</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="F19" t="n">
-        <v>94.63489309436898</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="G19" t="n">
         <v>94.63489309436898</v>
@@ -5671,13 +5671,13 @@
         <v>94.63489309436898</v>
       </c>
       <c r="J19" t="n">
-        <v>158.0671683427673</v>
+        <v>158.0671683427672</v>
       </c>
       <c r="K19" t="n">
         <v>392.1427189144665</v>
       </c>
       <c r="L19" t="n">
-        <v>747.2052688577705</v>
+        <v>747.2052688577706</v>
       </c>
       <c r="M19" t="n">
         <v>1131.958067424482</v>
@@ -5704,19 +5704,19 @@
         <v>1726.489167134632</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.400713069366</v>
+        <v>1437.400713069365</v>
       </c>
       <c r="V19" t="n">
-        <v>1182.716224863479</v>
+        <v>1182.716224863478</v>
       </c>
       <c r="W19" t="n">
-        <v>893.2990548265179</v>
+        <v>893.2990548265178</v>
       </c>
       <c r="X19" t="n">
-        <v>665.3095039285006</v>
+        <v>893.2990548265178</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.5169247849707</v>
+        <v>672.5064756829877</v>
       </c>
     </row>
     <row r="20">
@@ -5741,55 +5741,55 @@
         <v>819.956025603705</v>
       </c>
       <c r="G20" t="n">
-        <v>405.4726416828661</v>
+        <v>405.472641682866</v>
       </c>
       <c r="H20" t="n">
-        <v>113.9218158622711</v>
+        <v>113.921815862271</v>
       </c>
       <c r="I20" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J20" t="n">
-        <v>332.5153587655095</v>
+        <v>332.5153587655094</v>
       </c>
       <c r="K20" t="n">
-        <v>1060.678989348635</v>
+        <v>739.7750309031821</v>
       </c>
       <c r="L20" t="n">
-        <v>1602.822386856984</v>
+        <v>1281.918428411531</v>
       </c>
       <c r="M20" t="n">
-        <v>2237.7308138785</v>
+        <v>2279.406039712707</v>
       </c>
       <c r="N20" t="n">
-        <v>2887.526531404382</v>
+        <v>2929.201757238588</v>
       </c>
       <c r="O20" t="n">
-        <v>3487.774940179427</v>
+        <v>3529.450166013634</v>
       </c>
       <c r="P20" t="n">
-        <v>4284.152790061997</v>
+        <v>4325.828015896203</v>
       </c>
       <c r="Q20" t="n">
-        <v>4594.785788839054</v>
+        <v>4636.46101467326</v>
       </c>
       <c r="R20" t="n">
-        <v>4731.744654718451</v>
+        <v>4731.744654718449</v>
       </c>
       <c r="S20" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.877333056569</v>
       </c>
       <c r="T20" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880846</v>
       </c>
       <c r="U20" t="n">
-        <v>4177.994871453418</v>
+        <v>4177.994871453416</v>
       </c>
       <c r="V20" t="n">
         <v>3846.931984109847</v>
       </c>
       <c r="W20" t="n">
-        <v>3494.163328839733</v>
+        <v>3494.163328839732</v>
       </c>
       <c r="X20" t="n">
         <v>3120.697570578653</v>
@@ -5817,7 +5817,7 @@
         <v>472.8310700191029</v>
       </c>
       <c r="F21" t="n">
-        <v>326.2965120459879</v>
+        <v>326.2965120459878</v>
       </c>
       <c r="G21" t="n">
         <v>190.2485901000271</v>
@@ -5826,16 +5826,16 @@
         <v>102.7906538237253</v>
       </c>
       <c r="I21" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J21" t="n">
         <v>217.4970218467728</v>
       </c>
       <c r="K21" t="n">
-        <v>505.6427938015034</v>
+        <v>217.4970218467728</v>
       </c>
       <c r="L21" t="n">
-        <v>939.4128847466715</v>
+        <v>651.2671127919409</v>
       </c>
       <c r="M21" t="n">
         <v>947.7554874944898</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>262.8684599547304</v>
+        <v>630.2351282742979</v>
       </c>
       <c r="C22" t="n">
-        <v>94.63489309436902</v>
+        <v>461.2989453463911</v>
       </c>
       <c r="D22" t="n">
-        <v>94.63489309436902</v>
+        <v>311.1823059340552</v>
       </c>
       <c r="E22" t="n">
-        <v>94.63489309436902</v>
+        <v>311.1823059340552</v>
       </c>
       <c r="F22" t="n">
-        <v>94.63489309436902</v>
+        <v>311.1823059340552</v>
       </c>
       <c r="G22" t="n">
-        <v>94.63489309436902</v>
+        <v>311.1823059340552</v>
       </c>
       <c r="H22" t="n">
-        <v>94.63489309436902</v>
+        <v>167.3144070335846</v>
       </c>
       <c r="I22" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436899</v>
       </c>
       <c r="J22" t="n">
-        <v>158.0671683427674</v>
+        <v>158.0671683427673</v>
       </c>
       <c r="K22" t="n">
         <v>392.1427189144666</v>
       </c>
       <c r="L22" t="n">
-        <v>747.2052688577708</v>
+        <v>747.2052688577706</v>
       </c>
       <c r="M22" t="n">
         <v>1131.958067424482</v>
@@ -5932,28 +5932,28 @@
         <v>2212.157269137911</v>
       </c>
       <c r="R22" t="n">
-        <v>2134.207770855304</v>
+        <v>2212.157269137911</v>
       </c>
       <c r="S22" t="n">
-        <v>1947.126779186388</v>
+        <v>2025.076277468995</v>
       </c>
       <c r="T22" t="n">
-        <v>1726.489167134632</v>
+        <v>1804.438665417239</v>
       </c>
       <c r="U22" t="n">
-        <v>1437.400713069365</v>
+        <v>1515.350211351972</v>
       </c>
       <c r="V22" t="n">
-        <v>1182.716224863478</v>
+        <v>1260.665723146085</v>
       </c>
       <c r="W22" t="n">
-        <v>893.2990548265176</v>
+        <v>1260.665723146085</v>
       </c>
       <c r="X22" t="n">
-        <v>665.3095039285002</v>
+        <v>1032.676172248068</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.5169247849701</v>
+        <v>811.8835931045377</v>
       </c>
     </row>
     <row r="23">
@@ -5981,46 +5981,46 @@
         <v>405.4726416828661</v>
       </c>
       <c r="H23" t="n">
-        <v>113.9218158622711</v>
+        <v>113.921815862271</v>
       </c>
       <c r="I23" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J23" t="n">
-        <v>332.5153587655095</v>
+        <v>332.5153587655094</v>
       </c>
       <c r="K23" t="n">
-        <v>1060.678989348635</v>
+        <v>739.7750309031821</v>
       </c>
       <c r="L23" t="n">
-        <v>1602.822386856984</v>
+        <v>1281.918428411531</v>
       </c>
       <c r="M23" t="n">
-        <v>2237.7308138785</v>
+        <v>2220.994581352356</v>
       </c>
       <c r="N23" t="n">
-        <v>2887.526531404382</v>
+        <v>2870.790298878238</v>
       </c>
       <c r="O23" t="n">
-        <v>3487.774940179427</v>
+        <v>3848.030887103401</v>
       </c>
       <c r="P23" t="n">
-        <v>4284.152790061997</v>
+        <v>4325.828015896203</v>
       </c>
       <c r="Q23" t="n">
-        <v>4594.785788839054</v>
+        <v>4636.46101467326</v>
       </c>
       <c r="R23" t="n">
-        <v>4731.744654718451</v>
+        <v>4731.744654718449</v>
       </c>
       <c r="S23" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.877333056569</v>
       </c>
       <c r="T23" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880846</v>
       </c>
       <c r="U23" t="n">
-        <v>4177.994871453418</v>
+        <v>4177.994871453416</v>
       </c>
       <c r="V23" t="n">
         <v>3846.931984109847</v>
@@ -6054,7 +6054,7 @@
         <v>472.8310700191029</v>
       </c>
       <c r="F24" t="n">
-        <v>326.2965120459879</v>
+        <v>326.2965120459878</v>
       </c>
       <c r="G24" t="n">
         <v>190.2485901000271</v>
@@ -6063,31 +6063,31 @@
         <v>102.7906538237253</v>
       </c>
       <c r="I24" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J24" t="n">
-        <v>217.4970218467728</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="K24" t="n">
-        <v>217.4970218467728</v>
+        <v>382.7806650490995</v>
       </c>
       <c r="L24" t="n">
-        <v>422.209382802632</v>
+        <v>816.5507559942675</v>
       </c>
       <c r="M24" t="n">
-        <v>947.7554874944898</v>
+        <v>1336.280408940521</v>
       </c>
       <c r="N24" t="n">
-        <v>1501.619878682048</v>
+        <v>1890.144800128078</v>
       </c>
       <c r="O24" t="n">
-        <v>1986.077795228097</v>
+        <v>2374.602716674128</v>
       </c>
       <c r="P24" t="n">
-        <v>2355.564917577402</v>
+        <v>2374.602716674128</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.638077468793</v>
+        <v>2571.675876565518</v>
       </c>
       <c r="R24" t="n">
         <v>2571.675876565518</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>483.6610390982605</v>
+        <v>262.8684599547313</v>
       </c>
       <c r="C25" t="n">
-        <v>483.6610390982605</v>
+        <v>262.8684599547313</v>
       </c>
       <c r="D25" t="n">
-        <v>483.6610390982605</v>
+        <v>262.8684599547313</v>
       </c>
       <c r="E25" t="n">
-        <v>335.7479455158673</v>
+        <v>262.8684599547313</v>
       </c>
       <c r="F25" t="n">
-        <v>262.0734948863332</v>
+        <v>262.8684599547313</v>
       </c>
       <c r="G25" t="n">
-        <v>94.63489309436902</v>
+        <v>95.42985816276712</v>
       </c>
       <c r="H25" t="n">
-        <v>94.63489309436902</v>
+        <v>95.42985816276712</v>
       </c>
       <c r="I25" t="n">
-        <v>94.63489309436902</v>
+        <v>94.63489309436898</v>
       </c>
       <c r="J25" t="n">
-        <v>158.0671683427672</v>
+        <v>158.0671683427673</v>
       </c>
       <c r="K25" t="n">
-        <v>392.1427189144666</v>
+        <v>392.1427189144665</v>
       </c>
       <c r="L25" t="n">
-        <v>747.2052688577706</v>
+        <v>747.2052688577703</v>
       </c>
       <c r="M25" t="n">
         <v>1131.958067424482</v>
@@ -6178,19 +6178,19 @@
         <v>1726.489167134632</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.400713069365</v>
+        <v>1437.400713069366</v>
       </c>
       <c r="V25" t="n">
-        <v>1182.716224863478</v>
+        <v>1182.716224863479</v>
       </c>
       <c r="W25" t="n">
-        <v>893.2990548265177</v>
+        <v>893.2990548265185</v>
       </c>
       <c r="X25" t="n">
-        <v>665.3095039285001</v>
+        <v>665.3095039285012</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.3095039285001</v>
+        <v>444.516924784971</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2343.958398538719</v>
+        <v>2343.958398538718</v>
       </c>
       <c r="C26" t="n">
         <v>1974.995881598307</v>
       </c>
       <c r="D26" t="n">
-        <v>1616.730182991557</v>
+        <v>1616.730182991556</v>
       </c>
       <c r="E26" t="n">
-        <v>1230.941930393313</v>
+        <v>1230.941930393312</v>
       </c>
       <c r="F26" t="n">
-        <v>819.956025603705</v>
+        <v>819.9560256037048</v>
       </c>
       <c r="G26" t="n">
-        <v>405.4726416828661</v>
+        <v>405.4726416828662</v>
       </c>
       <c r="H26" t="n">
         <v>113.9218158622711</v>
@@ -6227,49 +6227,49 @@
         <v>332.5153587655095</v>
       </c>
       <c r="K26" t="n">
-        <v>739.7750309031821</v>
+        <v>797.2584931143592</v>
       </c>
       <c r="L26" t="n">
-        <v>1281.918428411531</v>
+        <v>1752.886493027654</v>
       </c>
       <c r="M26" t="n">
-        <v>1916.826855433047</v>
+        <v>2387.79492004917</v>
       </c>
       <c r="N26" t="n">
-        <v>2999.596028126793</v>
+        <v>3037.590637575052</v>
       </c>
       <c r="O26" t="n">
-        <v>3599.844436901839</v>
+        <v>3637.839046350097</v>
       </c>
       <c r="P26" t="n">
-        <v>4077.641565694641</v>
+        <v>4115.636175142899</v>
       </c>
       <c r="Q26" t="n">
-        <v>4571.40175899901</v>
+        <v>4636.461014673262</v>
       </c>
       <c r="R26" t="n">
         <v>4731.744654718451</v>
       </c>
       <c r="S26" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.87733305657</v>
       </c>
       <c r="T26" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880847</v>
       </c>
       <c r="U26" t="n">
-        <v>4177.994871453418</v>
+        <v>4177.994871453417</v>
       </c>
       <c r="V26" t="n">
-        <v>3846.931984109847</v>
+        <v>3846.931984109846</v>
       </c>
       <c r="W26" t="n">
         <v>3494.163328839732</v>
       </c>
       <c r="X26" t="n">
-        <v>3120.697570578653</v>
+        <v>3120.697570578652</v>
       </c>
       <c r="Y26" t="n">
-        <v>2730.558238602841</v>
+        <v>2730.55823860284</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>217.4970218467728</v>
       </c>
       <c r="K27" t="n">
-        <v>217.4970218467728</v>
+        <v>505.6427938015034</v>
       </c>
       <c r="L27" t="n">
-        <v>422.209382802632</v>
+        <v>939.4128847466715</v>
       </c>
       <c r="M27" t="n">
         <v>947.7554874944898</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>262.8684599547304</v>
+        <v>729.0394108089688</v>
       </c>
       <c r="C28" t="n">
-        <v>94.63489309436902</v>
+        <v>560.1032278810619</v>
       </c>
       <c r="D28" t="n">
-        <v>94.63489309436902</v>
+        <v>409.9865884687263</v>
       </c>
       <c r="E28" t="n">
-        <v>94.63489309436902</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="F28" t="n">
-        <v>94.63489309436902</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="G28" t="n">
         <v>94.63489309436902</v>
@@ -6409,25 +6409,25 @@
         <v>2134.207770855304</v>
       </c>
       <c r="S28" t="n">
-        <v>1947.126779186389</v>
+        <v>1947.126779186388</v>
       </c>
       <c r="T28" t="n">
         <v>1726.489167134632</v>
       </c>
       <c r="U28" t="n">
-        <v>1437.400713069366</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="V28" t="n">
-        <v>1182.716224863479</v>
+        <v>1648.887175717717</v>
       </c>
       <c r="W28" t="n">
-        <v>893.2990548265176</v>
+        <v>1359.470005680756</v>
       </c>
       <c r="X28" t="n">
-        <v>665.3095039285002</v>
+        <v>1131.480454782739</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.5169247849701</v>
+        <v>910.6878756392085</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1616.730182991556</v>
       </c>
       <c r="E29" t="n">
-        <v>1230.941930393312</v>
+        <v>1230.941930393313</v>
       </c>
       <c r="F29" t="n">
-        <v>819.9560256037048</v>
+        <v>819.9560256037049</v>
       </c>
       <c r="G29" t="n">
-        <v>405.4726416828662</v>
+        <v>405.4726416828661</v>
       </c>
       <c r="H29" t="n">
         <v>113.9218158622711</v>
@@ -6461,25 +6461,25 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J29" t="n">
-        <v>499.9210077858625</v>
+        <v>332.5153587655095</v>
       </c>
       <c r="K29" t="n">
-        <v>907.1806799235353</v>
+        <v>739.7750309031821</v>
       </c>
       <c r="L29" t="n">
-        <v>1449.324077431884</v>
+        <v>1281.918428411531</v>
       </c>
       <c r="M29" t="n">
-        <v>2084.2325044534</v>
+        <v>2361.845253590951</v>
       </c>
       <c r="N29" t="n">
-        <v>2734.028221979282</v>
+        <v>3011.640971116833</v>
       </c>
       <c r="O29" t="n">
-        <v>3334.276630754327</v>
+        <v>3611.889379891878</v>
       </c>
       <c r="P29" t="n">
-        <v>4130.654480636897</v>
+        <v>4089.68650868468</v>
       </c>
       <c r="Q29" t="n">
         <v>4571.40175899901</v>
@@ -6488,7 +6488,7 @@
         <v>4731.744654718451</v>
       </c>
       <c r="S29" t="n">
-        <v>4634.87733305657</v>
+        <v>4634.877333056571</v>
       </c>
       <c r="T29" t="n">
         <v>4431.478222880847</v>
@@ -6540,13 +6540,13 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J30" t="n">
-        <v>94.63489309436902</v>
+        <v>217.4970218467728</v>
       </c>
       <c r="K30" t="n">
-        <v>382.7806650490996</v>
+        <v>505.6427938015034</v>
       </c>
       <c r="L30" t="n">
-        <v>422.209382802632</v>
+        <v>939.4128847466715</v>
       </c>
       <c r="M30" t="n">
         <v>947.7554874944898</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>389.4379341746724</v>
+        <v>409.9865884687263</v>
       </c>
       <c r="C31" t="n">
-        <v>389.4379341746724</v>
+        <v>409.9865884687263</v>
       </c>
       <c r="D31" t="n">
-        <v>389.4379341746724</v>
+        <v>409.9865884687263</v>
       </c>
       <c r="E31" t="n">
-        <v>241.5248405922794</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="F31" t="n">
-        <v>94.63489309436902</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="G31" t="n">
         <v>94.63489309436902</v>
@@ -6652,19 +6652,19 @@
         <v>1726.489167134632</v>
       </c>
       <c r="U31" t="n">
-        <v>1563.970187289307</v>
+        <v>1437.400713069365</v>
       </c>
       <c r="V31" t="n">
-        <v>1309.28569908342</v>
+        <v>1182.716224863478</v>
       </c>
       <c r="W31" t="n">
-        <v>1019.86852904646</v>
+        <v>893.2990548265177</v>
       </c>
       <c r="X31" t="n">
-        <v>791.8789781484422</v>
+        <v>812.4276324424961</v>
       </c>
       <c r="Y31" t="n">
-        <v>571.0863990049121</v>
+        <v>591.635053298966</v>
       </c>
     </row>
     <row r="32">
@@ -6683,46 +6683,46 @@
         <v>1616.730182991556</v>
       </c>
       <c r="E32" t="n">
-        <v>1230.941930393312</v>
+        <v>1230.941930393313</v>
       </c>
       <c r="F32" t="n">
-        <v>819.9560256037048</v>
+        <v>819.9560256037053</v>
       </c>
       <c r="G32" t="n">
-        <v>405.4726416828662</v>
+        <v>405.4726416828661</v>
       </c>
       <c r="H32" t="n">
-        <v>113.9218158622716</v>
+        <v>113.9218158622711</v>
       </c>
       <c r="I32" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="J32" t="n">
-        <v>484.902702291865</v>
+        <v>332.5153587655095</v>
       </c>
       <c r="K32" t="n">
-        <v>892.1623744295377</v>
+        <v>739.7750309031821</v>
       </c>
       <c r="L32" t="n">
-        <v>1434.305771937887</v>
+        <v>1310.835057903283</v>
       </c>
       <c r="M32" t="n">
-        <v>2069.214198959403</v>
+        <v>1945.743484924799</v>
       </c>
       <c r="N32" t="n">
-        <v>2719.009916485285</v>
+        <v>2595.539202450681</v>
       </c>
       <c r="O32" t="n">
-        <v>3319.25832526033</v>
+        <v>3572.779790675844</v>
       </c>
       <c r="P32" t="n">
-        <v>4115.636175142899</v>
+        <v>4050.576919468646</v>
       </c>
       <c r="Q32" t="n">
-        <v>4636.461014673262</v>
+        <v>4571.401758999009</v>
       </c>
       <c r="R32" t="n">
-        <v>4731.744654718451</v>
+        <v>4731.74465471845</v>
       </c>
       <c r="S32" t="n">
         <v>4634.87733305657</v>
@@ -6774,31 +6774,31 @@
         <v>102.7906538237253</v>
       </c>
       <c r="I33" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="J33" t="n">
-        <v>94.63489309436902</v>
+        <v>184.7514364487826</v>
       </c>
       <c r="K33" t="n">
-        <v>94.63489309436902</v>
+        <v>472.8972084035132</v>
       </c>
       <c r="L33" t="n">
-        <v>528.4049840395371</v>
+        <v>906.6672993486812</v>
       </c>
       <c r="M33" t="n">
-        <v>1053.951088731395</v>
+        <v>1432.213404040539</v>
       </c>
       <c r="N33" t="n">
-        <v>1607.815479918953</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.273396465002</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P33" t="n">
-        <v>2461.760518814308</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q33" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R33" t="n">
         <v>2571.675876565518</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>340.8179582373378</v>
+        <v>490.8580108527481</v>
       </c>
       <c r="C34" t="n">
-        <v>340.8179582373377</v>
+        <v>490.8580108527481</v>
       </c>
       <c r="D34" t="n">
-        <v>340.8179582373377</v>
+        <v>490.8580108527481</v>
       </c>
       <c r="E34" t="n">
-        <v>262.0734948863332</v>
+        <v>490.8580108527481</v>
       </c>
       <c r="F34" t="n">
-        <v>262.0734948863332</v>
+        <v>343.9680633548377</v>
       </c>
       <c r="G34" t="n">
-        <v>94.63489309436902</v>
+        <v>176.5294615628735</v>
       </c>
       <c r="H34" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="I34" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="J34" t="n">
         <v>158.0671683427673</v>
       </c>
       <c r="K34" t="n">
-        <v>392.1427189144667</v>
+        <v>392.1427189144665</v>
       </c>
       <c r="L34" t="n">
-        <v>747.2052688577708</v>
+        <v>747.2052688577705</v>
       </c>
       <c r="M34" t="n">
         <v>1131.958067424482</v>
@@ -6874,34 +6874,34 @@
         <v>1848.931679357069</v>
       </c>
       <c r="P34" t="n">
-        <v>2112.861217572734</v>
+        <v>2112.861217572735</v>
       </c>
       <c r="Q34" t="n">
         <v>2212.157269137911</v>
       </c>
       <c r="R34" t="n">
-        <v>2212.157269137911</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S34" t="n">
-        <v>2025.076277468996</v>
+        <v>1947.126779186389</v>
       </c>
       <c r="T34" t="n">
-        <v>1804.438665417239</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U34" t="n">
-        <v>1515.350211351973</v>
+        <v>1437.400713069366</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.665723146086</v>
+        <v>1182.716224863479</v>
       </c>
       <c r="W34" t="n">
-        <v>971.2485531091249</v>
+        <v>893.2990548265179</v>
       </c>
       <c r="X34" t="n">
-        <v>743.2590022111076</v>
+        <v>893.2990548265179</v>
       </c>
       <c r="Y34" t="n">
-        <v>522.4664230675775</v>
+        <v>672.5064756829878</v>
       </c>
     </row>
     <row r="35">
@@ -6932,46 +6932,46 @@
         <v>113.9218158622711</v>
       </c>
       <c r="I35" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="J35" t="n">
-        <v>499.9210077858625</v>
+        <v>332.5153587655095</v>
       </c>
       <c r="K35" t="n">
-        <v>907.1806799235353</v>
+        <v>739.7750309031821</v>
       </c>
       <c r="L35" t="n">
-        <v>1449.324077431884</v>
+        <v>1644.497612691192</v>
       </c>
       <c r="M35" t="n">
-        <v>2084.2325044534</v>
+        <v>2279.406039712708</v>
       </c>
       <c r="N35" t="n">
-        <v>2734.028221979282</v>
+        <v>2929.201757238589</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.276630754327</v>
+        <v>3529.450166013635</v>
       </c>
       <c r="P35" t="n">
-        <v>4050.576919468647</v>
+        <v>4325.828015896204</v>
       </c>
       <c r="Q35" t="n">
-        <v>4571.40175899901</v>
+        <v>4636.461014673261</v>
       </c>
       <c r="R35" t="n">
-        <v>4731.744654718451</v>
+        <v>4731.74465471845</v>
       </c>
       <c r="S35" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.87733305657</v>
       </c>
       <c r="T35" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880847</v>
       </c>
       <c r="U35" t="n">
-        <v>4177.994871453418</v>
+        <v>4177.994871453417</v>
       </c>
       <c r="V35" t="n">
-        <v>3846.931984109847</v>
+        <v>3846.931984109846</v>
       </c>
       <c r="W35" t="n">
         <v>3494.163328839732</v>
@@ -7011,13 +7011,13 @@
         <v>102.7906538237253</v>
       </c>
       <c r="I36" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="J36" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="K36" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="L36" t="n">
         <v>528.4049840395371</v>
@@ -7032,10 +7032,10 @@
         <v>2092.273396465002</v>
       </c>
       <c r="P36" t="n">
-        <v>2461.760518814308</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q36" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R36" t="n">
         <v>2571.675876565518</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.3095039285013</v>
+        <v>490.8580108527476</v>
       </c>
       <c r="C37" t="n">
-        <v>496.3733210005943</v>
+        <v>321.9218279248407</v>
       </c>
       <c r="D37" t="n">
-        <v>495.3208088901663</v>
+        <v>171.805188512505</v>
       </c>
       <c r="E37" t="n">
-        <v>495.3208088901663</v>
+        <v>171.805188512505</v>
       </c>
       <c r="F37" t="n">
-        <v>495.3208088901663</v>
+        <v>171.805188512505</v>
       </c>
       <c r="G37" t="n">
-        <v>327.8822070982021</v>
+        <v>94.634893094369</v>
       </c>
       <c r="H37" t="n">
-        <v>184.0143081977315</v>
+        <v>94.634893094369</v>
       </c>
       <c r="I37" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="J37" t="n">
         <v>158.0671683427673</v>
       </c>
       <c r="K37" t="n">
-        <v>392.1427189144665</v>
+        <v>392.1427189144666</v>
       </c>
       <c r="L37" t="n">
-        <v>747.2052688577708</v>
+        <v>747.2052688577706</v>
       </c>
       <c r="M37" t="n">
         <v>1131.958067424482</v>
@@ -7132,13 +7132,13 @@
         <v>1182.716224863478</v>
       </c>
       <c r="W37" t="n">
-        <v>893.2990548265177</v>
+        <v>893.2990548265175</v>
       </c>
       <c r="X37" t="n">
-        <v>665.3095039285013</v>
+        <v>893.2990548265175</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.3095039285013</v>
+        <v>672.5064756829873</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2343.958398538719</v>
+        <v>2343.958398538718</v>
       </c>
       <c r="C38" t="n">
         <v>1974.995881598307</v>
       </c>
       <c r="D38" t="n">
-        <v>1616.730182991557</v>
+        <v>1616.730182991556</v>
       </c>
       <c r="E38" t="n">
-        <v>1230.941930393313</v>
+        <v>1230.941930393312</v>
       </c>
       <c r="F38" t="n">
-        <v>819.956025603705</v>
+        <v>819.9560256037048</v>
       </c>
       <c r="G38" t="n">
-        <v>405.4726416828661</v>
+        <v>405.4726416828662</v>
       </c>
       <c r="H38" t="n">
         <v>113.9218158622711</v>
@@ -7172,22 +7172,22 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J38" t="n">
-        <v>499.9210077858625</v>
+        <v>332.5153587655095</v>
       </c>
       <c r="K38" t="n">
-        <v>907.1806799235353</v>
+        <v>739.7750309031821</v>
       </c>
       <c r="L38" t="n">
-        <v>1449.324077431884</v>
+        <v>1369.246516263634</v>
       </c>
       <c r="M38" t="n">
-        <v>2084.2325044534</v>
+        <v>2004.154943285151</v>
       </c>
       <c r="N38" t="n">
-        <v>2734.028221979282</v>
+        <v>2653.950660811032</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.276630754327</v>
+        <v>3254.199069586078</v>
       </c>
       <c r="P38" t="n">
         <v>4050.576919468647</v>
@@ -7199,25 +7199,25 @@
         <v>4731.744654718451</v>
       </c>
       <c r="S38" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.87733305657</v>
       </c>
       <c r="T38" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880847</v>
       </c>
       <c r="U38" t="n">
-        <v>4177.994871453418</v>
+        <v>4177.994871453417</v>
       </c>
       <c r="V38" t="n">
-        <v>3846.931984109847</v>
+        <v>3846.931984109846</v>
       </c>
       <c r="W38" t="n">
         <v>3494.163328839732</v>
       </c>
       <c r="X38" t="n">
-        <v>3120.697570578653</v>
+        <v>3120.697570578652</v>
       </c>
       <c r="Y38" t="n">
-        <v>2730.558238602841</v>
+        <v>2730.55823860284</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7251,13 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J39" t="n">
-        <v>217.4970218467728</v>
+        <v>94.63489309436902</v>
       </c>
       <c r="K39" t="n">
-        <v>505.6427938015034</v>
+        <v>382.7806650490996</v>
       </c>
       <c r="L39" t="n">
-        <v>939.4128847466715</v>
+        <v>422.209382802632</v>
       </c>
       <c r="M39" t="n">
         <v>947.7554874944898</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>522.4664230675776</v>
+        <v>646.9350294384448</v>
       </c>
       <c r="C40" t="n">
-        <v>522.4664230675776</v>
+        <v>477.9988465105379</v>
       </c>
       <c r="D40" t="n">
-        <v>409.9865884687264</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="E40" t="n">
-        <v>262.0734948863332</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="F40" t="n">
-        <v>262.0734948863332</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="G40" t="n">
-        <v>94.63489309436902</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="H40" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="I40" t="n">
         <v>94.63489309436902</v>
@@ -7354,28 +7354,28 @@
         <v>2212.157269137911</v>
       </c>
       <c r="R40" t="n">
-        <v>2212.157269137911</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S40" t="n">
-        <v>2025.076277468996</v>
+        <v>1947.126779186388</v>
       </c>
       <c r="T40" t="n">
-        <v>1804.438665417239</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U40" t="n">
-        <v>1515.350211351973</v>
+        <v>1437.400713069365</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.665723146086</v>
+        <v>1182.716224863478</v>
       </c>
       <c r="W40" t="n">
-        <v>971.2485531091251</v>
+        <v>893.2990548265177</v>
       </c>
       <c r="X40" t="n">
-        <v>743.2590022111077</v>
+        <v>893.2990548265177</v>
       </c>
       <c r="Y40" t="n">
-        <v>522.4664230675776</v>
+        <v>672.5064756829876</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J41" t="n">
-        <v>499.9210077858625</v>
+        <v>332.5153587655095</v>
       </c>
       <c r="K41" t="n">
-        <v>907.1806799235353</v>
+        <v>739.7750309031821</v>
       </c>
       <c r="L41" t="n">
-        <v>1449.324077431884</v>
+        <v>1695.403030816477</v>
       </c>
       <c r="M41" t="n">
-        <v>2529.250902611305</v>
+        <v>2330.311457837993</v>
       </c>
       <c r="N41" t="n">
-        <v>3179.046620137186</v>
+        <v>2980.107175363875</v>
       </c>
       <c r="O41" t="n">
-        <v>3779.295028912232</v>
+        <v>3782.971631429151</v>
       </c>
       <c r="P41" t="n">
-        <v>4257.092157705034</v>
+        <v>4260.768760221953</v>
       </c>
       <c r="Q41" t="n">
-        <v>4636.461014673262</v>
+        <v>4571.40175899901</v>
       </c>
       <c r="R41" t="n">
         <v>4731.744654718451</v>
@@ -7491,25 +7491,25 @@
         <v>94.63489309436902</v>
       </c>
       <c r="K42" t="n">
-        <v>94.63489309436902</v>
+        <v>382.7806650490996</v>
       </c>
       <c r="L42" t="n">
-        <v>528.4049840395371</v>
+        <v>816.5507559942677</v>
       </c>
       <c r="M42" t="n">
-        <v>1053.951088731395</v>
+        <v>1342.096860686125</v>
       </c>
       <c r="N42" t="n">
-        <v>1607.815479918953</v>
+        <v>1895.961251873683</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.273396465002</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P42" t="n">
-        <v>2461.760518814308</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q42" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R42" t="n">
         <v>2571.675876565518</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>444.5169247849698</v>
+        <v>482.0440411924602</v>
       </c>
       <c r="C43" t="n">
-        <v>444.5169247849698</v>
+        <v>482.0440411924602</v>
       </c>
       <c r="D43" t="n">
-        <v>294.4002853726342</v>
+        <v>331.9274017801245</v>
       </c>
       <c r="E43" t="n">
-        <v>262.0734948863332</v>
+        <v>184.0143081977312</v>
       </c>
       <c r="F43" t="n">
-        <v>262.0734948863332</v>
+        <v>184.0143081977312</v>
       </c>
       <c r="G43" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977312</v>
       </c>
       <c r="H43" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977312</v>
       </c>
       <c r="I43" t="n">
         <v>94.63489309436902</v>
@@ -7570,10 +7570,10 @@
         <v>158.0671683427673</v>
       </c>
       <c r="K43" t="n">
-        <v>392.1427189144666</v>
+        <v>392.1427189144665</v>
       </c>
       <c r="L43" t="n">
-        <v>747.2052688577706</v>
+        <v>747.2052688577705</v>
       </c>
       <c r="M43" t="n">
         <v>1131.958067424482</v>
@@ -7591,28 +7591,28 @@
         <v>2212.157269137911</v>
       </c>
       <c r="R43" t="n">
-        <v>2134.207770855303</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S43" t="n">
         <v>1947.126779186388</v>
       </c>
       <c r="T43" t="n">
-        <v>1726.489167134631</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U43" t="n">
         <v>1437.400713069365</v>
       </c>
       <c r="V43" t="n">
-        <v>1182.716224863478</v>
+        <v>1220.243341270968</v>
       </c>
       <c r="W43" t="n">
-        <v>893.2990548265172</v>
+        <v>930.8261712340077</v>
       </c>
       <c r="X43" t="n">
-        <v>665.3095039284999</v>
+        <v>702.8366203359903</v>
       </c>
       <c r="Y43" t="n">
-        <v>444.5169247849698</v>
+        <v>482.0440411924602</v>
       </c>
     </row>
     <row r="44">
@@ -7643,52 +7643,52 @@
         <v>113.9218158622711</v>
       </c>
       <c r="I44" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="J44" t="n">
-        <v>499.9210077858625</v>
+        <v>332.5153587655095</v>
       </c>
       <c r="K44" t="n">
-        <v>907.1806799235353</v>
+        <v>739.7750309031821</v>
       </c>
       <c r="L44" t="n">
-        <v>1449.324077431884</v>
+        <v>1281.918428411531</v>
       </c>
       <c r="M44" t="n">
-        <v>2084.2325044534</v>
+        <v>2214.346784038456</v>
       </c>
       <c r="N44" t="n">
-        <v>2734.028221979282</v>
+        <v>2864.142501564337</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.276630754327</v>
+        <v>3464.390910339383</v>
       </c>
       <c r="P44" t="n">
-        <v>4050.576919468647</v>
+        <v>4260.768760221952</v>
       </c>
       <c r="Q44" t="n">
-        <v>4571.40175899901</v>
+        <v>4571.401758999009</v>
       </c>
       <c r="R44" t="n">
-        <v>4731.744654718451</v>
+        <v>4731.74465471845</v>
       </c>
       <c r="S44" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.87733305657</v>
       </c>
       <c r="T44" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880847</v>
       </c>
       <c r="U44" t="n">
-        <v>4177.994871453418</v>
+        <v>4177.994871453417</v>
       </c>
       <c r="V44" t="n">
-        <v>3846.931984109847</v>
+        <v>3846.931984109846</v>
       </c>
       <c r="W44" t="n">
         <v>3494.163328839732</v>
       </c>
       <c r="X44" t="n">
-        <v>3120.697570578653</v>
+        <v>3120.697570578652</v>
       </c>
       <c r="Y44" t="n">
         <v>2730.558238602841</v>
@@ -7722,22 +7722,22 @@
         <v>102.7906538237253</v>
       </c>
       <c r="I45" t="n">
-        <v>94.63489309436902</v>
+        <v>94.634893094369</v>
       </c>
       <c r="J45" t="n">
         <v>217.4970218467728</v>
       </c>
       <c r="K45" t="n">
-        <v>505.6427938015034</v>
+        <v>217.4970218467728</v>
       </c>
       <c r="L45" t="n">
-        <v>939.4128847466715</v>
+        <v>422.209382802632</v>
       </c>
       <c r="M45" t="n">
-        <v>1464.958989438529</v>
+        <v>947.7554874944898</v>
       </c>
       <c r="N45" t="n">
-        <v>1986.077795228097</v>
+        <v>1501.619878682048</v>
       </c>
       <c r="O45" t="n">
         <v>1986.077795228097</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.5710760222759</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="C46" t="n">
-        <v>94.63489309436902</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="D46" t="n">
-        <v>94.63489309436902</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="E46" t="n">
-        <v>94.63489309436898</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="F46" t="n">
-        <v>94.63489309436898</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="G46" t="n">
-        <v>94.63489309436898</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="H46" t="n">
-        <v>94.63489309436898</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="I46" t="n">
-        <v>94.63489309436898</v>
+        <v>94.634893094369</v>
       </c>
       <c r="J46" t="n">
         <v>158.0671683427673</v>
@@ -7828,28 +7828,28 @@
         <v>2212.157269137911</v>
       </c>
       <c r="R46" t="n">
-        <v>2134.910386922849</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S46" t="n">
-        <v>1947.829395253934</v>
+        <v>1947.126779186388</v>
       </c>
       <c r="T46" t="n">
-        <v>1727.191783202177</v>
+        <v>1791.502914278103</v>
       </c>
       <c r="U46" t="n">
-        <v>1438.103329136911</v>
+        <v>1502.414460212837</v>
       </c>
       <c r="V46" t="n">
-        <v>1183.418840931024</v>
+        <v>1247.72997200695</v>
       </c>
       <c r="W46" t="n">
-        <v>894.0016708940633</v>
+        <v>958.3128019699891</v>
       </c>
       <c r="X46" t="n">
-        <v>666.012119996046</v>
+        <v>730.3232510719718</v>
       </c>
       <c r="Y46" t="n">
-        <v>445.2195408525156</v>
+        <v>509.5306719284418</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>281.3133266100198</v>
+        <v>267.9751899443178</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.6736186875539</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>118.3728449425553</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>41.49865829860964</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>128.6451863472974</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>151.579905222897</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.713739916079646</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>270.3790939035164</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>42.09618771132205</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>85.8634853499168</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>81.5967688699086</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>366.2416002824843</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>42.09618771132205</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>307.2401271912213</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>42.09618771132205</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,16 +9875,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>58.06410324361315</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>184.9769641690018</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.4285652374306</v>
+        <v>172.8103550881543</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>153.9266096225813</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>29.20871665833533</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>366.2416002824854</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>240.9122827490083</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>88.21018974959941</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>240.9122827490083</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>204.6626740305362</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>69.43015978906169</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>300.5251804095033</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9122827490083</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.7642157740445</v>
@@ -23434,7 +23434,7 @@
         <v>142.4292199114659</v>
       </c>
       <c r="I13" t="n">
-        <v>88.48562095232887</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.3037794777427</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>216.9838254253523</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>165.7642157740445</v>
       </c>
       <c r="H16" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>88.48562095232887</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6955899068700546</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>39.75761194908483</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6955899068694293</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>68.55276485803093</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.7642157740445</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.4292199114659</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6955899068700546</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>165.7642157740445</v>
       </c>
       <c r="H22" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>88.48562095232887</v>
+        <v>16.53290215250545</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>77.17000329978113</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>72.48334189969248</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>142.4292199114659</v>
       </c>
       <c r="I25" t="n">
-        <v>88.48562095232887</v>
+        <v>87.69860553461471</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6955899068700546</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.7642157740445</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.4292199114659</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1975695246138</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>175.3116718210819</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.7642157740445</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.4292199114659</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>125.3037794777427</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>145.6469472288558</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>68.47694392907475</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.4292199114659</v>
+        <v>61.35359712764647</v>
       </c>
       <c r="I34" t="n">
         <v>88.48562095232887</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.17000329978113</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5734860288887</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>89.36562331008989</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>88.48562095232887</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>154.5162483998397</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>37.26043676534979</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.7642157740445</v>
       </c>
       <c r="H40" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>88.48562095232887</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.17000329978113</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>114.4304400651303</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.7642157740445</v>
       </c>
       <c r="H43" t="n">
         <v>142.4292199114659</v>
       </c>
       <c r="I43" t="n">
-        <v>88.48562095232887</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>37.15184524341501</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>165.7642157740445</v>
       </c>
       <c r="H46" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>88.48562095232887</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.6955899068700228</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>64.36360967203657</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>698605.761337421</v>
+        <v>698605.7613374211</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698605.761337421</v>
+        <v>698605.7613374211</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>698605.761337421</v>
+        <v>698605.7613374211</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698605.761337421</v>
+        <v>698605.7613374211</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698605.7613374211</v>
+        <v>698605.761337421</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698605.7613374213</v>
+        <v>698605.761337421</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698605.7613374213</v>
+        <v>698605.7613374211</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778549</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
         <v>720840.1380648345</v>
       </c>
       <c r="F2" t="n">
-        <v>720840.1380648346</v>
+        <v>720840.1380648344</v>
       </c>
       <c r="G2" t="n">
+        <v>720840.1380648339</v>
+      </c>
+      <c r="H2" t="n">
         <v>720840.1380648343</v>
-      </c>
-      <c r="H2" t="n">
-        <v>720840.1380648344</v>
       </c>
       <c r="I2" t="n">
         <v>720840.1380648346</v>
       </c>
       <c r="J2" t="n">
-        <v>720840.1380648343</v>
+        <v>720840.1380648346</v>
       </c>
       <c r="K2" t="n">
+        <v>720840.1380648346</v>
+      </c>
+      <c r="L2" t="n">
         <v>720840.1380648345</v>
       </c>
-      <c r="L2" t="n">
-        <v>720840.1380648342</v>
-      </c>
       <c r="M2" t="n">
-        <v>720840.1380648339</v>
+        <v>720840.1380648345</v>
       </c>
       <c r="N2" t="n">
-        <v>720840.1380648344</v>
+        <v>720840.1380648345</v>
       </c>
       <c r="O2" t="n">
-        <v>720840.1380648344</v>
+        <v>720840.1380648345</v>
       </c>
       <c r="P2" t="n">
-        <v>720840.1380648344</v>
+        <v>720840.1380648345</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>222196.7942265952</v>
+        <v>222196.7942265961</v>
       </c>
       <c r="D3" t="n">
-        <v>206847.4224926551</v>
+        <v>206847.4224926542</v>
       </c>
       <c r="E3" t="n">
-        <v>840466.440805779</v>
+        <v>840466.4408057788</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>72254.69487113922</v>
       </c>
       <c r="K3" t="n">
-        <v>51661.50476788278</v>
+        <v>51661.50476788299</v>
       </c>
       <c r="L3" t="n">
-        <v>49960.32981559671</v>
+        <v>49960.32981559645</v>
       </c>
       <c r="M3" t="n">
-        <v>126757.3382140879</v>
+        <v>126757.3382140878</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>342104.9357195593</v>
       </c>
       <c r="C4" t="n">
-        <v>279924.6828686728</v>
+        <v>279924.6828686725</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>18607.69308186907</v>
+        <v>18607.69308186903</v>
       </c>
       <c r="F4" t="n">
-        <v>18607.69308186909</v>
+        <v>18607.69308186911</v>
       </c>
       <c r="G4" t="n">
-        <v>18607.69308186907</v>
+        <v>18607.69308186903</v>
       </c>
       <c r="H4" t="n">
-        <v>18607.69308186909</v>
+        <v>18607.69308186904</v>
       </c>
       <c r="I4" t="n">
-        <v>18607.69308186909</v>
+        <v>18607.69308186911</v>
       </c>
       <c r="J4" t="n">
         <v>18607.69308186907</v>
       </c>
       <c r="K4" t="n">
-        <v>18607.69308186909</v>
+        <v>18607.69308186903</v>
       </c>
       <c r="L4" t="n">
-        <v>18607.69308186907</v>
+        <v>18607.69308186906</v>
       </c>
       <c r="M4" t="n">
-        <v>18607.69308186908</v>
+        <v>18607.69308186906</v>
       </c>
       <c r="N4" t="n">
         <v>18607.69308186908</v>
       </c>
       <c r="O4" t="n">
-        <v>18607.69308186906</v>
+        <v>18607.69308186907</v>
       </c>
       <c r="P4" t="n">
-        <v>18607.69308186908</v>
+        <v>18607.69308186907</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>67152.68417133161</v>
+        <v>67152.68417133167</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>98842.06615675706</v>
+        <v>98842.06615675704</v>
       </c>
       <c r="F5" t="n">
-        <v>98842.06615675706</v>
+        <v>98842.06615675704</v>
       </c>
       <c r="G5" t="n">
-        <v>98842.06615675706</v>
+        <v>98842.06615675704</v>
       </c>
       <c r="H5" t="n">
-        <v>98842.06615675706</v>
+        <v>98842.06615675704</v>
       </c>
       <c r="I5" t="n">
-        <v>98842.06615675706</v>
+        <v>98842.06615675704</v>
       </c>
       <c r="J5" t="n">
         <v>98842.06615675706</v>
@@ -26497,10 +26497,10 @@
         <v>98842.06615675706</v>
       </c>
       <c r="L5" t="n">
-        <v>98842.06615675706</v>
+        <v>98842.06615675705</v>
       </c>
       <c r="M5" t="n">
-        <v>98842.06615675706</v>
+        <v>98842.06615675705</v>
       </c>
       <c r="N5" t="n">
         <v>98842.06615675706</v>
@@ -26509,7 +26509,7 @@
         <v>98842.06615675706</v>
       </c>
       <c r="P5" t="n">
-        <v>98842.06615675706</v>
+        <v>98842.06615675705</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219357.9361947025</v>
+        <v>219357.9361947026</v>
       </c>
       <c r="C6" t="n">
-        <v>169663.4316112551</v>
+        <v>169663.4316112546</v>
       </c>
       <c r="D6" t="n">
-        <v>230450.767323455</v>
+        <v>230450.7673234557</v>
       </c>
       <c r="E6" t="n">
-        <v>-237076.0619795706</v>
+        <v>-237126.3326873843</v>
       </c>
       <c r="F6" t="n">
-        <v>603390.3788262085</v>
+        <v>603340.1081183943</v>
       </c>
       <c r="G6" t="n">
-        <v>603390.3788262082</v>
+        <v>603340.1081183939</v>
       </c>
       <c r="H6" t="n">
-        <v>603390.3788262083</v>
+        <v>603340.1081183943</v>
       </c>
       <c r="I6" t="n">
-        <v>603390.3788262085</v>
+        <v>603340.1081183945</v>
       </c>
       <c r="J6" t="n">
-        <v>531135.683955069</v>
+        <v>531085.4132472554</v>
       </c>
       <c r="K6" t="n">
-        <v>551728.8740583257</v>
+        <v>551678.6033505116</v>
       </c>
       <c r="L6" t="n">
-        <v>553430.0490106114</v>
+        <v>553379.778302798</v>
       </c>
       <c r="M6" t="n">
-        <v>476633.0406121199</v>
+        <v>476582.7699043067</v>
       </c>
       <c r="N6" t="n">
-        <v>603390.3788262083</v>
+        <v>603340.1081183945</v>
       </c>
       <c r="O6" t="n">
-        <v>603390.3788262083</v>
+        <v>603340.1081183945</v>
       </c>
       <c r="P6" t="n">
-        <v>603390.3788262083</v>
+        <v>603340.1081183945</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>207.8155030201806</v>
+        <v>207.8155030201813</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,25 +26790,25 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>476.8866152219025</v>
+        <v>476.8866152219033</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1182.936163679613</v>
+        <v>1182.936163679612</v>
       </c>
       <c r="F4" t="n">
-        <v>1182.936163679613</v>
+        <v>1182.936163679612</v>
       </c>
       <c r="G4" t="n">
-        <v>1182.936163679613</v>
+        <v>1182.936163679612</v>
       </c>
       <c r="H4" t="n">
-        <v>1182.936163679613</v>
+        <v>1182.936163679612</v>
       </c>
       <c r="I4" t="n">
-        <v>1182.936163679613</v>
+        <v>1182.936163679612</v>
       </c>
       <c r="J4" t="n">
         <v>1182.936163679613</v>
@@ -26817,10 +26817,10 @@
         <v>1182.936163679613</v>
       </c>
       <c r="L4" t="n">
-        <v>1182.936163679613</v>
+        <v>1182.936163679612</v>
       </c>
       <c r="M4" t="n">
-        <v>1182.936163679613</v>
+        <v>1182.936163679612</v>
       </c>
       <c r="N4" t="n">
         <v>1182.936163679613</v>
@@ -26829,7 +26829,7 @@
         <v>1182.936163679613</v>
       </c>
       <c r="P4" t="n">
-        <v>1182.936163679613</v>
+        <v>1182.936163679612</v>
       </c>
     </row>
   </sheetData>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7942423010552</v>
+        <v>172.794242301056</v>
       </c>
       <c r="D3" t="n">
-        <v>169.928161196906</v>
+        <v>169.9281611969053</v>
       </c>
       <c r="E3" t="n">
         <v>857.0979598671615</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>200.730101519547</v>
+        <v>200.7301015195478</v>
       </c>
       <c r="D4" t="n">
-        <v>197.4006575326531</v>
+        <v>197.4006575326523</v>
       </c>
       <c r="E4" t="n">
-        <v>508.6488909250571</v>
+        <v>508.6488909250567</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023559</v>
       </c>
       <c r="K4" t="n">
-        <v>200.730101519547</v>
+        <v>200.7301015195478</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4006575326531</v>
+        <v>197.4006575326521</v>
       </c>
       <c r="M4" t="n">
-        <v>508.6488909250571</v>
+        <v>508.6488909250567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>200.730101519547</v>
+        <v>200.7301015195478</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4006575326531</v>
+        <v>197.4006575326523</v>
       </c>
       <c r="M4" t="n">
-        <v>508.6488909250571</v>
+        <v>508.6488909250567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>393.9750539528654</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>182.2685993828186</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>13.37520615014982</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>139.4803797400525</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>119.9182417169036</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115925</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>290.4107304320619</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>330.9188603255946</v>
       </c>
       <c r="I5" t="n">
-        <v>178.2676194993084</v>
+        <v>178.2676194993082</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>97.38995978399805</v>
       </c>
       <c r="S5" t="n">
-        <v>189.9824986311806</v>
+        <v>189.9824986311805</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>142.111099041804</v>
       </c>
     </row>
     <row r="6">
@@ -27698,13 +27698,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.8965177793559</v>
@@ -27713,7 +27713,7 @@
         <v>107.9183712397942</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>74.00652248624127</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.40466188138203</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>72.03759207691286</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3630074941089</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9119742267739</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.55135477951004</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>45.19349881403751</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.6162300907174</v>
@@ -27795,7 +27795,7 @@
         <v>144.1807424028196</v>
       </c>
       <c r="J7" t="n">
-        <v>66.86440688736221</v>
+        <v>66.86440688736212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.78190229564711</v>
+        <v>54.781902295647</v>
       </c>
       <c r="R7" t="n">
-        <v>160.4433015749103</v>
+        <v>160.4433015749102</v>
       </c>
       <c r="S7" t="n">
-        <v>217.4857403436987</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>226.3443880115686</v>
+        <v>27.7402850295322</v>
       </c>
       <c r="U7" t="n">
         <v>286.2985884873414</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>218.8388043680907</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>46.76331713866882</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-8.713403803635539e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8354392081213283</v>
+        <v>0.8354392081213313</v>
       </c>
       <c r="H5" t="n">
-        <v>8.555941790172556</v>
+        <v>8.555941790172586</v>
       </c>
       <c r="I5" t="n">
-        <v>32.20827007109754</v>
+        <v>32.20827007109766</v>
       </c>
       <c r="J5" t="n">
-        <v>70.90685849028766</v>
+        <v>70.9068584902879</v>
       </c>
       <c r="K5" t="n">
-        <v>106.2710001700635</v>
+        <v>106.2710001700639</v>
       </c>
       <c r="L5" t="n">
-        <v>131.8385728356066</v>
+        <v>131.8385728356071</v>
       </c>
       <c r="M5" t="n">
-        <v>146.6958148530343</v>
+        <v>146.6958148530348</v>
       </c>
       <c r="N5" t="n">
-        <v>149.069506503109</v>
+        <v>149.0695065031096</v>
       </c>
       <c r="O5" t="n">
-        <v>140.7621078773526</v>
+        <v>140.7621078773531</v>
       </c>
       <c r="P5" t="n">
-        <v>120.1372024268573</v>
+        <v>120.1372024268577</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.21803578601217</v>
+        <v>90.21803578601248</v>
       </c>
       <c r="R5" t="n">
-        <v>52.47915815715144</v>
+        <v>52.47915815715162</v>
       </c>
       <c r="S5" t="n">
-        <v>19.03757095506479</v>
+        <v>19.03757095506486</v>
       </c>
       <c r="T5" t="n">
-        <v>3.657135133551117</v>
+        <v>3.65713513355113</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06683513664970625</v>
+        <v>0.06683513664970649</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4469993838547281</v>
+        <v>0.4469993838547296</v>
       </c>
       <c r="H6" t="n">
-        <v>4.317072996702243</v>
+        <v>4.317072996702258</v>
       </c>
       <c r="I6" t="n">
-        <v>15.39011036517375</v>
+        <v>15.39011036517381</v>
       </c>
       <c r="J6" t="n">
-        <v>42.23163915620482</v>
+        <v>42.23163915620497</v>
       </c>
       <c r="K6" t="n">
-        <v>72.1805978744716</v>
+        <v>72.18059787447186</v>
       </c>
       <c r="L6" t="n">
-        <v>97.05572148126454</v>
+        <v>97.05572148126488</v>
       </c>
       <c r="M6" t="n">
-        <v>113.2594491459984</v>
+        <v>113.2594491459988</v>
       </c>
       <c r="N6" t="n">
-        <v>116.2570897508839</v>
+        <v>116.2570897508843</v>
       </c>
       <c r="O6" t="n">
-        <v>106.3525244559975</v>
+        <v>106.3525244559979</v>
       </c>
       <c r="P6" t="n">
-        <v>85.35727708011909</v>
+        <v>85.35727708011939</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.05907924433336</v>
+        <v>57.05907924433357</v>
       </c>
       <c r="R6" t="n">
-        <v>27.75317227126111</v>
+        <v>27.75317227126121</v>
       </c>
       <c r="S6" t="n">
-        <v>8.302817502740229</v>
+        <v>8.302817502740258</v>
       </c>
       <c r="T6" t="n">
-        <v>1.801721200712697</v>
+        <v>1.801721200712703</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02940785420096896</v>
+        <v>0.02940785420096907</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3747492677413092</v>
+        <v>0.3747492677413106</v>
       </c>
       <c r="H7" t="n">
-        <v>3.331861671372733</v>
+        <v>3.331861671372745</v>
       </c>
       <c r="I7" t="n">
-        <v>11.26973252443865</v>
+        <v>11.26973252443869</v>
       </c>
       <c r="J7" t="n">
-        <v>26.49477322931056</v>
+        <v>26.49477322931065</v>
       </c>
       <c r="K7" t="n">
-        <v>43.53905128849028</v>
+        <v>43.53905128849043</v>
       </c>
       <c r="L7" t="n">
-        <v>55.71499567855793</v>
+        <v>55.71499567855813</v>
       </c>
       <c r="M7" t="n">
-        <v>58.74365112421268</v>
+        <v>58.74365112421288</v>
       </c>
       <c r="N7" t="n">
-        <v>57.34685839899511</v>
+        <v>57.34685839899532</v>
       </c>
       <c r="O7" t="n">
-        <v>52.96910558947162</v>
+        <v>52.9691055894718</v>
       </c>
       <c r="P7" t="n">
-        <v>45.32422052754887</v>
+        <v>45.32422052754903</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.38014095604727</v>
+        <v>31.38014095604738</v>
       </c>
       <c r="R7" t="n">
-        <v>16.85008980225923</v>
+        <v>16.85008980225929</v>
       </c>
       <c r="S7" t="n">
-        <v>6.530857693273541</v>
+        <v>6.530857693273564</v>
       </c>
       <c r="T7" t="n">
-        <v>1.601201416712866</v>
+        <v>1.601201416712872</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02044086914952598</v>
+        <v>0.02044086914952605</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>576.7059867951955</v>
       </c>
       <c r="M12" t="n">
-        <v>150.5609053844611</v>
+        <v>639.9123362390563</v>
       </c>
       <c r="N12" t="n">
         <v>690.8006930808664</v>
       </c>
       <c r="O12" t="n">
-        <v>631.9476752990397</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>507.1937229186793</v>
@@ -32078,16 +32078,16 @@
         <v>250.9407870226302</v>
       </c>
       <c r="K15" t="n">
-        <v>428.8977742821676</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>576.7059867951955</v>
+        <v>563.6284403293439</v>
       </c>
       <c r="M15" t="n">
         <v>672.9886851259151</v>
       </c>
       <c r="N15" t="n">
-        <v>168.3729133394124</v>
+        <v>690.8006930808664</v>
       </c>
       <c r="O15" t="n">
         <v>631.9476752990397</v>
@@ -32096,10 +32096,10 @@
         <v>507.1937229186793</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.0455719561129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>164.9096040616663</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>49.33541771695083</v>
@@ -32321,10 +32321,10 @@
         <v>576.7059867951955</v>
       </c>
       <c r="M18" t="n">
-        <v>672.9886851259151</v>
+        <v>150.5609053844612</v>
       </c>
       <c r="N18" t="n">
-        <v>168.3729133394124</v>
+        <v>690.8006930808664</v>
       </c>
       <c r="O18" t="n">
         <v>631.9476752990397</v>
@@ -32552,13 +32552,13 @@
         <v>250.9407870226302</v>
       </c>
       <c r="K21" t="n">
-        <v>428.8977742821676</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>576.7059867951955</v>
       </c>
       <c r="M21" t="n">
-        <v>150.5609053844611</v>
+        <v>441.6172406922697</v>
       </c>
       <c r="N21" t="n">
         <v>690.8006930808664</v>
@@ -32786,16 +32786,16 @@
         <v>91.44817687793727</v>
       </c>
       <c r="J24" t="n">
-        <v>250.9407870226302</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>428.8977742821676</v>
       </c>
       <c r="L24" t="n">
-        <v>345.3345423615501</v>
+        <v>576.7059867951955</v>
       </c>
       <c r="M24" t="n">
-        <v>672.9886851259151</v>
+        <v>667.1134813424762</v>
       </c>
       <c r="N24" t="n">
         <v>690.8006930808664</v>
@@ -32804,13 +32804,13 @@
         <v>631.9476752990397</v>
       </c>
       <c r="P24" t="n">
-        <v>507.1937229186793</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>339.0455719561129</v>
       </c>
       <c r="R24" t="n">
-        <v>164.9096040616663</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>49.33541771695083</v>
@@ -33026,13 +33026,13 @@
         <v>250.9407870226302</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>428.8977742821676</v>
       </c>
       <c r="L27" t="n">
-        <v>345.3345423615501</v>
+        <v>576.7059867951955</v>
       </c>
       <c r="M27" t="n">
-        <v>672.9886851259151</v>
+        <v>150.5609053844611</v>
       </c>
       <c r="N27" t="n">
         <v>690.8006930808664</v>
@@ -33260,16 +33260,16 @@
         <v>91.44817687793727</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>250.9407870226302</v>
       </c>
       <c r="K30" t="n">
         <v>428.8977742821676</v>
       </c>
       <c r="L30" t="n">
-        <v>178.3813674097049</v>
+        <v>576.7059867951955</v>
       </c>
       <c r="M30" t="n">
-        <v>672.9886851259151</v>
+        <v>150.5609053844611</v>
       </c>
       <c r="N30" t="n">
         <v>690.8006930808664</v>
@@ -33497,10 +33497,10 @@
         <v>91.44817687793727</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>217.8644381357714</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>428.8977742821676</v>
       </c>
       <c r="L33" t="n">
         <v>576.7059867951955</v>
@@ -33512,16 +33512,16 @@
         <v>690.8006930808664</v>
       </c>
       <c r="O33" t="n">
-        <v>631.9476752990397</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>507.1937229186793</v>
       </c>
       <c r="Q33" t="n">
-        <v>251.0073879761328</v>
+        <v>339.0455719561129</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S33" t="n">
         <v>49.33541771695083</v>
@@ -33752,13 +33752,13 @@
         <v>631.9476752990397</v>
       </c>
       <c r="P36" t="n">
-        <v>507.1937229186793</v>
+        <v>399.9254388409969</v>
       </c>
       <c r="Q36" t="n">
-        <v>251.0073879761328</v>
+        <v>339.0455719561129</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S36" t="n">
         <v>49.33541771695083</v>
@@ -33971,16 +33971,16 @@
         <v>91.44817687793727</v>
       </c>
       <c r="J39" t="n">
-        <v>250.9407870226302</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>428.8977742821676</v>
       </c>
       <c r="L39" t="n">
-        <v>576.7059867951955</v>
+        <v>178.3813674097049</v>
       </c>
       <c r="M39" t="n">
-        <v>150.5609053844611</v>
+        <v>672.9886851259151</v>
       </c>
       <c r="N39" t="n">
         <v>690.8006930808664</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>428.8977742821676</v>
       </c>
       <c r="L42" t="n">
         <v>576.7059867951955</v>
@@ -34223,16 +34223,16 @@
         <v>690.8006930808664</v>
       </c>
       <c r="O42" t="n">
-        <v>631.9476752990397</v>
+        <v>233.6230559135493</v>
       </c>
       <c r="P42" t="n">
         <v>507.1937229186793</v>
       </c>
       <c r="Q42" t="n">
-        <v>251.0073879761328</v>
+        <v>339.0455719561129</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S42" t="n">
         <v>49.33541771695083</v>
@@ -34448,19 +34448,19 @@
         <v>250.9407870226302</v>
       </c>
       <c r="K45" t="n">
-        <v>428.8977742821676</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>576.7059867951955</v>
+        <v>345.3345423615501</v>
       </c>
       <c r="M45" t="n">
         <v>672.9886851259151</v>
       </c>
       <c r="N45" t="n">
-        <v>657.7243441940077</v>
+        <v>690.8006930808664</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>631.9476752990397</v>
       </c>
       <c r="P45" t="n">
         <v>507.1937229186793</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
@@ -34784,13 +34784,13 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2658797799248</v>
+        <v>144.9277431142228</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>58.95756913567514</v>
+        <v>58.95756913567539</v>
       </c>
       <c r="K5" t="n">
-        <v>210.3265616962477</v>
+        <v>210.3265616962481</v>
       </c>
       <c r="L5" t="n">
-        <v>313.7333724160699</v>
+        <v>313.7333724160703</v>
       </c>
       <c r="M5" t="n">
-        <v>365.8631151185941</v>
+        <v>365.8631151185946</v>
       </c>
       <c r="N5" t="n">
-        <v>357.0033673185023</v>
+        <v>357.0033673185028</v>
       </c>
       <c r="O5" t="n">
-        <v>291.4640777184112</v>
+        <v>291.4640777184117</v>
       </c>
       <c r="P5" t="n">
-        <v>210.7029148430703</v>
+        <v>210.7029148430708</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.22733657146736</v>
+        <v>80.22733657146767</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.7668574320934</v>
+        <v>41.48504782994711</v>
       </c>
       <c r="K6" t="n">
-        <v>198.8043959126912</v>
+        <v>198.8043959126915</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>329.3416870048499</v>
       </c>
       <c r="M6" t="n">
-        <v>436.83047897398</v>
+        <v>99.77060157127791</v>
       </c>
       <c r="N6" t="n">
-        <v>464.2577520111041</v>
+        <v>464.2577520111045</v>
       </c>
       <c r="O6" t="n">
-        <v>357.6185992882826</v>
+        <v>357.618599288283</v>
       </c>
       <c r="P6" t="n">
-        <v>269.845638305726</v>
+        <v>269.8456383057263</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.1545928941609</v>
+        <v>127.1545928941611</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.26955946260743</v>
+        <v>21.26955946260758</v>
       </c>
       <c r="L7" t="n">
-        <v>83.30502093887407</v>
+        <v>83.30502093887426</v>
       </c>
       <c r="M7" t="n">
-        <v>98.32752808605326</v>
+        <v>98.32752808605346</v>
       </c>
       <c r="N7" t="n">
-        <v>101.4790307782237</v>
+        <v>101.4790307782239</v>
       </c>
       <c r="O7" t="n">
-        <v>77.55423350351128</v>
+        <v>77.55423350351148</v>
       </c>
       <c r="P7" t="n">
-        <v>42.60277979244236</v>
+        <v>42.60277979244252</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>409.3799138297914</v>
+        <v>391.8632038806147</v>
       </c>
       <c r="K11" t="n">
-        <v>411.3734061996694</v>
+        <v>735.5188187708342</v>
       </c>
       <c r="L11" t="n">
         <v>547.6195934427767</v>
       </c>
       <c r="M11" t="n">
-        <v>1090.83517694891</v>
+        <v>641.321643456077</v>
       </c>
       <c r="N11" t="n">
         <v>656.3593106322037</v>
@@ -35428,10 +35428,10 @@
         <v>482.6233624169717</v>
       </c>
       <c r="Q11" t="n">
-        <v>317.4844457514908</v>
+        <v>526.0856964953159</v>
       </c>
       <c r="R11" t="n">
-        <v>161.9625209287284</v>
+        <v>96.24610105574595</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>438.1516070153213</v>
       </c>
       <c r="M12" t="n">
-        <v>8.426871462442746</v>
+        <v>497.778302317038</v>
       </c>
       <c r="N12" t="n">
         <v>559.4589809975331</v>
       </c>
       <c r="O12" t="n">
-        <v>489.3514308545953</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>373.219315504349</v>
@@ -35647,10 +35647,10 @@
         <v>240.2832986577176</v>
       </c>
       <c r="K14" t="n">
-        <v>735.5188187708342</v>
+        <v>411.3734061996694</v>
       </c>
       <c r="L14" t="n">
-        <v>547.6195934427767</v>
+        <v>965.2808079932271</v>
       </c>
       <c r="M14" t="n">
         <v>641.321643456077</v>
@@ -35659,16 +35659,16 @@
         <v>656.3593106322037</v>
       </c>
       <c r="O14" t="n">
-        <v>606.3115240151972</v>
+        <v>876.6906179187135</v>
       </c>
       <c r="P14" t="n">
-        <v>804.4220705884543</v>
+        <v>482.6233624169717</v>
       </c>
       <c r="Q14" t="n">
         <v>313.7707058354111</v>
       </c>
       <c r="R14" t="n">
-        <v>138.342288767068</v>
+        <v>96.24610105574595</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>124.1031603559635</v>
       </c>
       <c r="K15" t="n">
-        <v>291.0563353078086</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>438.1516070153213</v>
+        <v>425.0740605494698</v>
       </c>
       <c r="M15" t="n">
         <v>530.8546512038968</v>
       </c>
       <c r="N15" t="n">
-        <v>37.03120125607913</v>
+        <v>559.4589809975331</v>
       </c>
       <c r="O15" t="n">
         <v>489.3514308545953</v>
@@ -35744,10 +35744,10 @@
         <v>373.219315504349</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.0637978700914</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>19.23010009770232</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>326.1467840076344</v>
+        <v>409.3799138297914</v>
       </c>
       <c r="K17" t="n">
-        <v>735.5188187708342</v>
+        <v>411.3734061996694</v>
       </c>
       <c r="L17" t="n">
-        <v>547.6195934427767</v>
+        <v>629.2163623126853</v>
       </c>
       <c r="M17" t="n">
         <v>641.321643456077</v>
       </c>
       <c r="N17" t="n">
-        <v>656.3593106322037</v>
+        <v>1093.706235044188</v>
       </c>
       <c r="O17" t="n">
         <v>606.3115240151972</v>
@@ -35902,10 +35902,10 @@
         <v>482.6233624169717</v>
       </c>
       <c r="Q17" t="n">
-        <v>526.0856964953159</v>
+        <v>313.7707058354111</v>
       </c>
       <c r="R17" t="n">
-        <v>161.9625209287284</v>
+        <v>96.24610105574595</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>438.1516070153213</v>
       </c>
       <c r="M18" t="n">
-        <v>530.8546512038968</v>
+        <v>8.426871462442861</v>
       </c>
       <c r="N18" t="n">
-        <v>37.03120125607913</v>
+        <v>559.4589809975331</v>
       </c>
       <c r="O18" t="n">
         <v>489.3514308545953</v>
@@ -36121,13 +36121,13 @@
         <v>240.2832986577176</v>
       </c>
       <c r="K20" t="n">
-        <v>735.5188187708342</v>
+        <v>411.3734061996694</v>
       </c>
       <c r="L20" t="n">
         <v>547.6195934427767</v>
       </c>
       <c r="M20" t="n">
-        <v>641.321643456077</v>
+        <v>1007.563243738561</v>
       </c>
       <c r="N20" t="n">
         <v>656.3593106322037</v>
@@ -36142,7 +36142,7 @@
         <v>313.7707058354111</v>
       </c>
       <c r="R20" t="n">
-        <v>138.342288767068</v>
+        <v>96.24610105574595</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>124.1031603559635</v>
       </c>
       <c r="K21" t="n">
-        <v>291.0563353078086</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>438.1516070153213</v>
       </c>
       <c r="M21" t="n">
-        <v>8.426871462442746</v>
+        <v>299.4832067702514</v>
       </c>
       <c r="N21" t="n">
         <v>559.4589809975331</v>
@@ -36358,28 +36358,28 @@
         <v>240.2832986577176</v>
       </c>
       <c r="K23" t="n">
-        <v>735.5188187708342</v>
+        <v>411.3734061996694</v>
       </c>
       <c r="L23" t="n">
         <v>547.6195934427767</v>
       </c>
       <c r="M23" t="n">
-        <v>641.321643456077</v>
+        <v>948.5617706472983</v>
       </c>
       <c r="N23" t="n">
         <v>656.3593106322037</v>
       </c>
       <c r="O23" t="n">
-        <v>606.3115240151972</v>
+        <v>987.1117052779425</v>
       </c>
       <c r="P23" t="n">
-        <v>804.4220705884543</v>
+        <v>482.6233624169717</v>
       </c>
       <c r="Q23" t="n">
         <v>313.7707058354111</v>
       </c>
       <c r="R23" t="n">
-        <v>138.342288767068</v>
+        <v>96.24610105574595</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>124.1031603559635</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>291.0563353078086</v>
       </c>
       <c r="L24" t="n">
-        <v>206.780162581676</v>
+        <v>438.1516070153213</v>
       </c>
       <c r="M24" t="n">
-        <v>530.8546512038968</v>
+        <v>524.9794474204579</v>
       </c>
       <c r="N24" t="n">
         <v>559.4589809975331</v>
@@ -36452,13 +36452,13 @@
         <v>489.3514308545953</v>
       </c>
       <c r="P24" t="n">
-        <v>373.219315504349</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>199.0637978700914</v>
       </c>
       <c r="R24" t="n">
-        <v>19.23010009770232</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>240.2832986577176</v>
       </c>
       <c r="K26" t="n">
-        <v>411.3734061996694</v>
+        <v>469.4375094432826</v>
       </c>
       <c r="L26" t="n">
-        <v>547.6195934427767</v>
+        <v>965.2808079932271</v>
       </c>
       <c r="M26" t="n">
         <v>641.321643456077</v>
       </c>
       <c r="N26" t="n">
-        <v>1093.706235044188</v>
+        <v>656.3593106322037</v>
       </c>
       <c r="O26" t="n">
         <v>606.3115240151972</v>
@@ -36613,10 +36613,10 @@
         <v>482.6233624169717</v>
       </c>
       <c r="Q26" t="n">
-        <v>498.747670004413</v>
+        <v>526.0856964953159</v>
       </c>
       <c r="R26" t="n">
-        <v>161.9625209287284</v>
+        <v>96.24610105574595</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>124.1031603559635</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>291.0563353078086</v>
       </c>
       <c r="L27" t="n">
-        <v>206.780162581676</v>
+        <v>438.1516070153213</v>
       </c>
       <c r="M27" t="n">
-        <v>530.8546512038968</v>
+        <v>8.426871462442746</v>
       </c>
       <c r="N27" t="n">
         <v>559.4589809975331</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>409.3799138297914</v>
+        <v>240.2832986577176</v>
       </c>
       <c r="K29" t="n">
         <v>411.3734061996694</v>
@@ -36838,7 +36838,7 @@
         <v>547.6195934427767</v>
       </c>
       <c r="M29" t="n">
-        <v>641.321643456077</v>
+        <v>1090.83517694891</v>
       </c>
       <c r="N29" t="n">
         <v>656.3593106322037</v>
@@ -36847,10 +36847,10 @@
         <v>606.3115240151972</v>
       </c>
       <c r="P29" t="n">
-        <v>804.4220705884543</v>
+        <v>482.6233624169717</v>
       </c>
       <c r="Q29" t="n">
-        <v>445.1992710728417</v>
+        <v>486.5810609235654</v>
       </c>
       <c r="R29" t="n">
         <v>161.9625209287284</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>124.1031603559635</v>
       </c>
       <c r="K30" t="n">
         <v>291.0563353078086</v>
       </c>
       <c r="L30" t="n">
-        <v>39.82698762983076</v>
+        <v>438.1516070153213</v>
       </c>
       <c r="M30" t="n">
-        <v>530.8546512038968</v>
+        <v>8.426871462442746</v>
       </c>
       <c r="N30" t="n">
         <v>559.4589809975331</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>394.209908280299</v>
+        <v>240.2832986577176</v>
       </c>
       <c r="K32" t="n">
         <v>411.3734061996694</v>
       </c>
       <c r="L32" t="n">
-        <v>547.6195934427767</v>
+        <v>576.828310101112</v>
       </c>
       <c r="M32" t="n">
         <v>641.321643456077</v>
@@ -37081,16 +37081,16 @@
         <v>656.3593106322037</v>
       </c>
       <c r="O32" t="n">
-        <v>606.3115240151972</v>
+        <v>987.1117052779425</v>
       </c>
       <c r="P32" t="n">
-        <v>804.4220705884543</v>
+        <v>482.6233624169717</v>
       </c>
       <c r="Q32" t="n">
         <v>526.0856964953159</v>
       </c>
       <c r="R32" t="n">
-        <v>96.24610105574595</v>
+        <v>161.9625209287284</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>91.02681146910466</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>291.0563353078086</v>
       </c>
       <c r="L33" t="n">
         <v>438.1516070153213</v>
@@ -37160,16 +37160,16 @@
         <v>559.4589809975331</v>
       </c>
       <c r="O33" t="n">
-        <v>489.3514308545953</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>373.219315504349</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.0256138901113</v>
+        <v>199.0637978700914</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>19.23010009770232</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>409.3799138297914</v>
+        <v>240.2832986577176</v>
       </c>
       <c r="K35" t="n">
         <v>411.3734061996694</v>
       </c>
       <c r="L35" t="n">
-        <v>547.6195934427767</v>
+        <v>913.8611937252621</v>
       </c>
       <c r="M35" t="n">
         <v>641.321643456077</v>
@@ -37321,13 +37321,13 @@
         <v>606.3115240151972</v>
       </c>
       <c r="P35" t="n">
-        <v>723.53564516598</v>
+        <v>804.4220705884543</v>
       </c>
       <c r="Q35" t="n">
-        <v>526.0856964953159</v>
+        <v>313.7707058354111</v>
       </c>
       <c r="R35" t="n">
-        <v>161.9625209287284</v>
+        <v>96.24610105574595</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>489.3514308545953</v>
       </c>
       <c r="P36" t="n">
-        <v>373.219315504349</v>
+        <v>265.9510314266667</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.0256138901113</v>
+        <v>199.0637978700914</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>19.23010009770232</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>409.3799138297914</v>
+        <v>240.2832986577176</v>
       </c>
       <c r="K38" t="n">
         <v>411.3734061996694</v>
       </c>
       <c r="L38" t="n">
-        <v>547.6195934427767</v>
+        <v>635.8297831923761</v>
       </c>
       <c r="M38" t="n">
         <v>641.321643456077</v>
@@ -37558,7 +37558,7 @@
         <v>606.3115240151972</v>
       </c>
       <c r="P38" t="n">
-        <v>723.53564516598</v>
+        <v>804.4220705884543</v>
       </c>
       <c r="Q38" t="n">
         <v>526.0856964953159</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>124.1031603559635</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>291.0563353078086</v>
       </c>
       <c r="L39" t="n">
-        <v>438.1516070153213</v>
+        <v>39.82698762983076</v>
       </c>
       <c r="M39" t="n">
-        <v>8.426871462442746</v>
+        <v>530.8546512038968</v>
       </c>
       <c r="N39" t="n">
         <v>559.4589809975331</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>409.3799138297914</v>
+        <v>240.2832986577176</v>
       </c>
       <c r="K41" t="n">
         <v>411.3734061996694</v>
       </c>
       <c r="L41" t="n">
-        <v>547.6195934427767</v>
+        <v>965.2808079932271</v>
       </c>
       <c r="M41" t="n">
-        <v>1090.83517694891</v>
+        <v>641.321643456077</v>
       </c>
       <c r="N41" t="n">
         <v>656.3593106322037</v>
       </c>
       <c r="O41" t="n">
-        <v>606.3115240151972</v>
+        <v>810.9741980457334</v>
       </c>
       <c r="P41" t="n">
         <v>482.6233624169717</v>
       </c>
       <c r="Q41" t="n">
-        <v>383.2008656244728</v>
+        <v>313.7707058354111</v>
       </c>
       <c r="R41" t="n">
-        <v>96.24610105574595</v>
+        <v>161.9625209287284</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>291.0563353078086</v>
       </c>
       <c r="L42" t="n">
         <v>438.1516070153213</v>
@@ -37871,16 +37871,16 @@
         <v>559.4589809975331</v>
       </c>
       <c r="O42" t="n">
-        <v>489.3514308545953</v>
+        <v>91.02681146910486</v>
       </c>
       <c r="P42" t="n">
         <v>373.219315504349</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.0256138901113</v>
+        <v>199.0637978700914</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>19.23010009770232</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>409.3799138297914</v>
+        <v>240.2832986577176</v>
       </c>
       <c r="K44" t="n">
         <v>411.3734061996694</v>
@@ -38023,7 +38023,7 @@
         <v>547.6195934427767</v>
       </c>
       <c r="M44" t="n">
-        <v>641.321643456077</v>
+        <v>941.8468238655803</v>
       </c>
       <c r="N44" t="n">
         <v>656.3593106322037</v>
@@ -38032,10 +38032,10 @@
         <v>606.3115240151972</v>
       </c>
       <c r="P44" t="n">
-        <v>723.53564516598</v>
+        <v>804.4220705884543</v>
       </c>
       <c r="Q44" t="n">
-        <v>526.0856964953159</v>
+        <v>313.7707058354111</v>
       </c>
       <c r="R44" t="n">
         <v>161.9625209287284</v>
@@ -38096,19 +38096,19 @@
         <v>124.1031603559635</v>
       </c>
       <c r="K45" t="n">
-        <v>291.0563353078086</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>438.1516070153213</v>
+        <v>206.780162581676</v>
       </c>
       <c r="M45" t="n">
         <v>530.8546512038968</v>
       </c>
       <c r="N45" t="n">
-        <v>526.3826321106744</v>
+        <v>559.4589809975331</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>489.3514308545953</v>
       </c>
       <c r="P45" t="n">
         <v>373.219315504349</v>
